--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,69 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The reel features a mix of emotional and romantic content with high engagement, indicating a strong connection with the audience.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Romantic and emotional content creator with a focus on love and relationships.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Positive and engaging, with a lot of love and emotional reactions.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18500</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DIbGiMcxUvJ/</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_pihu_arya2425/</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>The reel has high engagement and a romantic theme, which aligns well with Knytt's focus on personal connections. The creator's audience is likely to be interested in a texting &amp; video calling app.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Hey Pihu! Loved your reel—such a beautiful expression of love! 💖 We’re building Knytt, a cozy space for heartfelt conversations. Would love for you to check it out and maybe share your thoughts with your audience. Let’s connect! 😊</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>This is so heartfelt! 💖 If you ever want to share more love stories, Knytt is perfect for deep, personal convos. Check it out! 😊</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,6 +1256,69 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The reel by @rishi__lifestyle__ uses a broken heart and wilted rose emoji (💔🥀), suggesting an emotionally charged or relatable theme, possibly about heartbreak, disappointment, or life's struggles. The content has gone viral, with 713K likes, indicating strong resonance with the audience. Top comments reflect relatability, humor, and a casual, friendly vibe, amplifying its reach and engagement. The creator presents as a relatable, trend-savvy content creator with high audience connection.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Relatable, emotionally expressive, trend-driven lifestyle content creator with a focus on virality and audience engagement.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Empathetic, relatable, casual with a touch of humor.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>713000</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGdJkcCzD7F/</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rishi__lifestyle__/</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>The reel's viral success (713K likes), emotionally resonant theme, and highly engaged, relatable audience mark both the creator and their followers as ideal for Knytt outreach. The creator's content style aligns with Knytt’s goals of fostering real, human connections. Both a DM and a contextual, curiosity-building comment will maximize conversion and brand curiosity.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Hey Rishi! 👋 Your reel really hit home—so many of us feel those 💔 moments. We’re building Knytt, a new way to connect genuinely through texting and video calls (think: beyond the DMs). Would love to have you as a creator on the app! Interested in joining our early community? 😊</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>That 💔🥀 vibe… hits different! Ever wondered what real convos with strangers who just *get it* would feel like? 👀 Check out @knyttofficial—could be your next viral connection! 🔗</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,6 +1319,2085 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sunil_barmotra's reel, using original audio, features playful tagging and humor, with a lighthearted vibe around 'rejection level Pro Max'. The reel has strong engagement: 313K likes and 2,029 comments, with audience reactions blending humor and relatability. The creator's style is fun, social, and relatable, appealing to a broad audience.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Playful, relatable, and community-oriented content creator with a humorous touch. Comfortable engaging with trends and social situations.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lighthearted, humorous, and relatable</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>313000</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DJoOVqMx0cH/</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sunil_barmotra/</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>The reel's high like count and active comment section indicate viral potential and a relatable theme. The creator's playful, social persona aligns well with Knytt's focus on real connections. Both DM and public comment are ideal: DM for a personal pitch, and a witty comment to spark audience curiosity and maximize reach.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Hey Sunil! Absolutely loved your 'Rejection level Pro Max' reel—your sense of humor and connection with your audience is top-notch. I think you'd be a perfect fit for Knytt, a paid texting &amp; video calling app built for real, fun connections. Would love to chat about how you could join the Knytt creator fam and bring your unique style to our community!</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Rejection level: Sunil’s reel 😂🔥 If only there was an app to handle these epic moments… 👀 Ever heard of Knytt? Might just be your next viral hangout! @knyttofficial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>This reel by _carwalebaba_ centers on deep emotional themes, possibly heartbreak or introspection, as suggested by the caption 'FEEL ❤️‍🩹🥺' and hashtags like #love, #viral, and #trending. The reel has high engagement (186K likes), and the audience responds with similarly emotive and relatable comments — many referencing loneliness, heartbreak, and self-growth. The overall vibe is vulnerable and resonates strongly with people experiencing or reflecting on emotional moments.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Emotionally expressive content creator, likely targeting youth and those dealing with love, heartbreak, or self-growth. Engages audience with relatable, heartfelt themes.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Supportive, empathetic, and relatable. Audience members share their own feelings and connect with the reel's emotional depth.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>186000</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DINRpgczgr7/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_carwalebaba_/</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>The reel's high like count shows viral potential and a highly engaged, emotionally invested audience. The creator’s content aligns with Knytt’s focus on authentic, meaningful connections. Both a DM and a public comment are recommended: a comment will spark curiosity among viewers, and a DM provides a personal touch to entice the creator to join.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Hey! Your reel really hit home — the way you capture and share raw emotions is something special. At Knytt, we believe meaningful conversations can help people feel less alone, especially during tough times. Would you be open to sharing your vibe with an audience who genuinely wants to connect? Let’s chat if you’re interested in joining our community or partnering up!</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>The feels in this reel are so real 🥺❤️‍🩹 Sometimes a good convo is all we need to heal. Ever tried connecting with someone who truly gets it? 👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>This reel features emotionally charged, relatable content about feelings of heartbreak and loneliness, resonating strongly with a young, expressive audience. The comments highlight themes of love, pain, self-growth, and support, with many users tagging friends or expressing empathy. The creator, _carwalebaba_, uses heartfelt emojis and trending tags to amplify emotional reach.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Relatable, emotionally expressive, youth-centric content creator who leverages trending topics and raw feelings to foster community and engagement.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Supportive, empathetic, and deeply relatable with a hint of vulnerability.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>186000</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DINRpgczgr7/</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_carwalebaba_/</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>The reel has high engagement (186K likes), emotional resonance, and widespread relatability, making both the creator and the audience excellent targets for outreach. The creator fits Knytt's vibe of authentic, heartfelt connection, and the comment section shows a receptive, interactive community. A comment will spark curiosity among viewers, while a DM will enable a personal pitch to the creator.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Hey! I came across your reel and was genuinely moved by the raw, relatable emotions you share. Your content builds real connections, and that's exactly what we're about at Knytt—an app for authentic texting and video calls with people who just 'get it.' Would love to see you bring your unique vibe to our community! Let me know if you’d like to know more or try it out. 😊</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>This one hits right in the feels. ❤️‍🩹 Ever wish you could connect with someone who truly understands these late-night emotions? Knytt is all about real conversations and genuine connections—worth checking out! @knyttofficial</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The reel by _carwalebaba_ is emotionally charged, focused on feelings of heartbreak and vulnerability, resonating with themes of love and pain. The caption 'FEEL ❤️‍🩹🥺' and popular hashtags (#viral, #love, #trending) suggest a relatable, youth-oriented context. Audience engagement is high, with comments expressing similar emotions of loneliness, heartbreak, and camaraderie, indicating a deep, relatable connection with viewers.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Relatable youth-oriented content creator, focusing on emotional, love, and heartbreak themes; appeals to a wide, engaged Gen Z and millennial audience.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Empathetic, emotional, and supportive</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>186000</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGyT85ZSlKT/</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/_carwalebaba_</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>The creator has produced a highly relatable, emotionally resonant reel that has garnered significant engagement (186K likes). The comments reflect a strong, emotionally involved audience, making both the creator and their followers strong candidates for Knytt, which facilitates personal, meaningful conversations. The content aligns perfectly with Knytt’s brand of authentic connections. Both DM and comment are recommended: DM for a tailored pitch to the creator, and a contextual comment to pique audience curiosity.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Hey! I came across your reel and was genuinely moved by how you capture those raw, heartfelt moments we all go through. At Knytt, we’re building a space for real, personal conversations—texting and video calls that go beyond the surface. Would love to invite you to join our community, or even collaborate to help more people connect on a deeper level. If you’re interested, let’s chat! 😊</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>You really know how to put feelings into words ❤️‍🩹🥺… Ever wish you could have deep chats with people who totally get it? 👀 (Psst—check out @knyttofficial, you might vibe with it!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The primary reel is posted by _carwalebaba_ with an emotional caption 'FEEL ❤️‍🩹🥺' and popular hashtags like #viral, #reels, and #love. The reel has 186K likes, indicating strong engagement and relatable content. The audience and commenters respond with heart, heartbreak, and 'relatable' sentiments, suggesting the reel strikes an emotional chord, especially around themes of love, loneliness, or vulnerability. The overall tone is empathetic and expressive, making both comments and personal outreach effective.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Emotion-driven, relatable content creator; likely focuses on feelings, relationships, and social connection; appeals to young, expressive audiences.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Empathetic, heartfelt, and supportive. The audience resonates emotionally and interacts with heartfelt emojis and relatable remarks.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>186000</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGyT85ZSlKT/</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/_carwalebaba_</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>The creator's emotionally rich reel and high engagement signal strong potential for Knytt, which is built around deeper, more personal connections. The audience is actively engaged and likely to be curious about new ways to connect emotionally. Both a DM and a public comment are recommended: a DM for a personal, genuine pitch; a comment to spark audience curiosity and organic discussion.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Hey! I came across your reel and loved how you capture real emotions and connect with your audience. If you're ever curious about a new way to have more personal, meaningful conversations with your followers (text or even face-to-face video calls), I'd love to invite you to try Knytt! We think your vibe would be a perfect fit for our community. Let me know if you're interested—happy to share more details! 😊</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>The feels in this one hit different! ❤️‍🩹 Ever wished you could connect with your followers on a more personal level? 👀 (Asking for a friend... or maybe for @knyttofficial 😄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The reel by @iammvinaywriterr features a trending Bollywood soundtrack, is tagged with popular reach-boosting hashtags, and has moderate engagement (305 likes, 1,532 comments, and 554K views). The audience appears energetic and social, with comments and captions centering around friendship and group experiences (e.g., 'Boys day out'). The creator seems to focus on relatable, fun moments with friends, possibly targeting a young, social demographic.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Young, outgoing, trend-aware content creator focused on friendship and group vibes, leveraging trending music and hashtags for maximum reach.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Upbeat, friendly, and community-oriented</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>305</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DMC8mfWM9zp/</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iammvinaywriterr/</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>The creator’s content is highly relatable and aligns with Knytt’s value proposition of social connection. The energetic group vibe appeals to both the creator and their audience. The high comment count shows active audience engagement, making both direct message and public comment effective for outreach. A DM can initiate a partnership, while a comment can spark audience curiosity.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Hey Vinay! Absolutely loved your reel and the vibe you create with your squad. 👏 If you’re ever up for taking these fun convos beyond Instagram—think private texting &amp; video calls with your community—check out Knytt! Would love to see you and your crew bring the same energy to our app. Let’s connect if you’re interested! 🚀</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>This squad energy is unmatched! 🔥 Ever thought about taking these epic convos to a place where your whole crew (and fans) can join in? 👀 Check out @knyttofficial—you guys would totally rock it there!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The reel by @_shrutivarma_16 is a comedic, highly relatable video that has gone viral with over 8,600 likes and close to a million views, drawing lots of laughter reactions and high engagement. The content is lighthearted, possibly about everyday situations, and is resonating with a young, meme-savvy audience.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Relatable comedy creator, likely a student or young adult, focused on daily humor and trending audio, with a highly engaged, youthful Indian audience.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Playful, funny, highly relatable and casual; audience is engaging with lots of laughter and tagging friends.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8643</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DG8HxEwplc-/</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_shrutivarma_16/</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>The creator's reel has gone viral, showing strong reach and engagement with an audience that loves relatable, everyday humor. The playful tone and meme-friendly style are a perfect match for Knytt’s goal of sparking curiosity and authentic connections. Both a DM (for personal touch and potential collaboration) and a public comment (to drive audience curiosity) are recommended for maximum impact.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Hey Shruti! Your reels are the perfect blend of relatable and hilarious—love how you capture daily life so effortlessly 😄. Have you ever thought about connecting with your fans even more personally? We’d love to invite you to try Knytt—a new app for creators to chat and video call with their audience (and get paid for it!). Would love to see your energy on Knytt! If you’re curious, let’s connect. 🚀</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Literally can’t stop laughing! 😂 Everyday scenes = instant mood boost. Ever thought about chatting LIVE with your followers? You’d totally rock it on @knyttofficial! 🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The reel by _shrutivarma_16 has gone viral with over 900K views and 8,643 likes, indicating strong reach and audience engagement. The content appears to be humor-driven, given the use of laughing emojis (😂😂😂) in both the caption and comment section. The audience is highly active, and the creator is likely in the relatable/comedy niche. The reel's casual, funny tone makes it appealing for both the creator and the broader audience.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Relatable comedy/entertainment creator, likely targeting young, social, and meme-savvy audiences. Engages using humor and trending audio. High potential for viral content.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Light-hearted, funny, and highly relatable. Audience responds with laughter and tags, fostering an inclusive, playful vibe.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8643</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DG8HxEwplc-/</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_shrutivarma_16/</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>The combination of high engagement, a viral reach (900K+ views), and a humorous, relatable style makes both the creator and their audience ideal targets. Humor and relatability are strong hooks for piquing curiosity about Knytt as a way to connect and share fun moments. The creator is likely to appreciate personalized outreach, while a witty comment can attract more audience to @knyttofficial.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Hey Shruti! Absolutely loved your reel — your sense of humor is so on point, no wonder everyone’s tagging their friends! 😄 If you enjoy sparking fun conversations, you’d vibe with Knytt — it’s a new app where creators like you can connect with your audience through paid chats &amp; video calls. Would love to see your energy on Knytt! Curious? Let’s chat!</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>This reel is legit everyone’s mood 😂🔥 If you ever wanna take these hilarious convos to the next level, check out @knyttofficial — might just find your next viral moment there! 😉</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>The reel from @mb_malik_boy_01 features an emotionally rich caption, 'I miss you maa😔😔😔', resonating deeply with viewers. The audio choice (Alka Yagnik · Har Ek Muskurahat) and high number of likes (1.8M) suggest a viral, relatable moment centered on nostalgia, love, and family bonds. Audience reactions are highly engaged and sentimental, likely sharing similar feelings or tagging loved ones. The creator's persona appears genuine, emotionally expressive, and capable of driving authentic connections.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Emotionally expressive, relatable, family-oriented, authentic</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Empathetic, heartfelt, supportive</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGIosk1u92z/</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mb_malik_boy_01</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>The emotionally charged reel has gone viral, indicating both the creator's and audience's receptiveness to emotionally resonant platforms. Knytt, as a medium for heartfelt video calls and texting, naturally aligns. Both a DM and public comment would maximize engagement: a public comment leverages the comment section's supportive tone, while a DM allows for personal connection and a clear pitch. The creator's content style fits Knytt's positioning for authentic, personal communication.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Hey! Your reel about missing your maa really touched me — it's incredible how you can connect with so many people through such honest moments. I help build a new app called Knytt, which is all about sharing real conversations and staying close to those who matter, even from afar. Would love to invite you to try it out, maybe even bring your followers along for a journey of heartfelt connection. Let me know if you're interested, and I can share more details! 💙</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>This hit straight in the feels. Sometimes a simple memory is all it takes to remind us what really matters. If you ever want to stay closer to loved ones, check out @knyttofficial — it's all about real conversations from the heart. 💙</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>This reel by mb_malik_boy_01 features a heartfelt message, 'I miss you maa😔😔😔', set to an emotional song. The post has gone viral with 1.8M likes and over 8,000 comments, indicating a strong emotional resonance with the audience. The creator uses minimal hashtags and relies on emotional storytelling and a relatable, universally touching theme.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Emotionally expressive, likely values family, connects through vulnerable and heartfelt content, appeals to a large, empathetic, and engaged audience.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Supportive, empathetic, and deeply emotional; audience is sharing personal feelings, offering comfort, and engaging with the sentiment of missing loved ones.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGIosk1u92z/</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mb_malik_boy_01/</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>The creator has demonstrated massive reach and engagement by tapping into universally relatable themes. Their audience is emotionally invested, making both the creator and the viewers strong prospects for Knytt, which focuses on meaningful connections via texting and video calls. Reaching out via both DM and a public comment will maximize exposure and feel natural given the reel's tone.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Hi! Your reel about missing your maa really touched my heart — you have a beautiful way of expressing emotions that so many can relate to. At Knytt, we're building a space for genuine connections with loved ones, whether they're near or far. Would you like to try our app? I think your voice and story could inspire others to reach out to those they miss. Let me know if you're interested — would love to tell you more! 💙</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>This hit right in the feels… Sometimes a simple text or call means everything. 💔 If you ever want to connect with loved ones in a more meaningful way, check out @knyttofficial — it's all about keeping hearts close, no matter the distance. Sending you lots of love! 💙</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The creator 'thewanderwhisperer' specializes in humorous, relatable, and creative Indian-themed reels, with a viral reel (992K likes) using original audio and popular desi comedy tags. The content is lighthearted, high-energy, and taps into trending meme formats with a strong South Indian and science twist. Audience engagement is high, with comments reflecting laughter, tagging friends, and playful banter.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Viral Indian comedy/meme creator with a creative and witty approach, focused on relatable desi scenarios and science humor for a youthful, meme-loving audience.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Playful, warm, and witty. Audience is highly engaged, tagging friends and reacting with laughter.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>992000</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DLG3wNBTm7v/</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thewanderwhisperer</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>With nearly a million likes and a highly engaged audience, the creator has strong viral potential and an ideal fit for Knytt’s fun, conversational brand. Their relatable and creative style will spark curiosity both with a DM and a public comment. Both strategies maximize reach: a friendly comment draws the audience, while a personalized DM appeals directly to the creator’s creative instincts.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loved your ‘Newton Reimagined’ reel – your blend of desi humor and creativity is gold! 😊 We're building Knytt, a fun new app for genuine chats and video calls (think of it as taking insta-relatability to the next level!). Would love to see your unique vibe on Knytt, and maybe even co-create something quirky together? Let’s chat if you’re curious! 🚀</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>‘Desi Science’ + epic comedy = instant classic! 😂 You’d totally spark some wild conversations on @knyttofficial. Ever thought about bringing this energy to a chat app? 👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The reel by @thewanderwhisperer is a highly viral, comedic take on Indian science and culture, blending humor and relatable desi themes. It uses trending hashtags and original audio, with nearly 1 million likes, indicating massive reach. The audience tone is playful and engaged, with frequent tagging and laughter emojis, showing strong relatability and shareability. The creator’s style is witty, creative, and culturally resonant—ideal for sparking curiosity about new social apps.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Viral Indian comedy/relatability creator with a science and cultural twist; witty, meme-savvy, trend-aware, and highly engaging with their audience.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Playful, witty, lightly promotional, and culturally connected</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>992000</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DLG3wNBTm7v/</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thewanderwhisperer</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>With close to a million likes, strong audience engagement, and a persona that thrives on relatability and creativity, @thewanderwhisperer is a prime candidate for both a personal message and a public comment. Their audience is highly responsive, suggesting that a well-placed comment could drive curiosity about Knytt, while a DM could convert the creator to become a featured user, leveraging their influence for wider reach.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loved your hilarious and uniquely ‘desi science’ spin—your reels are a goldmine of relatable comedy! 😊 We’re building Knytt, a new app for meaningful (and fun) texting &amp; video calling. We’d be thrilled to see how your creative energy could spark conversations and community on Knytt. If you’re curious, can I share more? Would love to collaborate or just get your take!</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Newton would’ve loved this level of ‘desi science’—can we get a theory on why Dosa tastes better with extra gravy tea? 😂🔥 If you ever want to turn these comedy labs into real convos, check out @knyttofficial! 🚀</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>This reel by _mr.zoeee_ uses the caption 'Tag yur gem 💎💋' and a suite of couple- and relationship-themed hashtags, inviting viewers to tag someone special. The engagement is strong, with 413K likes, and the tone is playful, affectionate, and relatable for couples. The comments and associated content show a trend of tagging partners or close friends, suggesting high emotional resonance and a young, relationship-oriented audience.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Relatable, couple-focused content creator with an emotionally engaging, playful, and trendy vibe—likely appealing to young, social, and relationship-centric audiences.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Warm, playful, and encouraging audience connection.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>413000</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DLuhvq5TJDw/</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_mr.zoeee_/</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>The reel's high like count, relatable theme, and strong tagging call-to-action indicate both high viral potential and a suitable audience for Knytt’s core offering (connecting people through texting and video calls). The creator's playful tone is a great fit for Knytt’s brand, and the audience is already engaging in tagging/share behaviors, which can drive curiosity and downloads. Both a DM (for partnership) and a comment (to spark audience interest) are recommended.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Hey Zoeee! Absolutely love how your reels get everyone tagging their special someone—your vibe fits perfectly with what we’re building at Knytt: a new way for couples (or close friends) to text and video call, with a little added magic. Would love to chat about a fun collab or how you could join our creator community. Interested? 💎💬</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>This is so cute! 💎💋 Curious—how do you keep the spark alive in a digital world? (Psst… have you heard of the Knytt app? Perfect for couples who love staying connected! 😉💌 @knyttofficial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The reel by _mr.zoeee_ is a relatable, romantic-themed video targeting couples and those in relationships, as seen by the caption 'Tag yur gem 💎💋' and the use of numerous couple and love-related hashtags. With 413K likes, its high engagement signals viral appeal. The audience is tagging their partners, sharing affectionate comments, and resonating with the content. The creator appears to be focused on relationship and lifestyle content, likely from Kerala, and has a warm, engaging style.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Relationship/lifestyle content creator with a romantic, relatable, and engaging tone; targets couples and young adults, likely with an audience concentrated in Kerala.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Warm, playful, inclusive, and positive; encourages tagging and audience participation.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>413000</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DG70varIT-c/</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_mr.zoeee_/</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>The creator's content aligns perfectly with Knytt's focus on connection and communication, especially for couples. The audience is highly engaged, tagging partners and friends, which increases the viral potential. Both a personal DM (to pitch collaboration) and a public comment (for wider reach and to spark curiosity) are recommended. The natural, affectionate vibe of the reel makes both strategies effective.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Hey Zoeee! Absolutely loved your 'Tag your gem' reel – you have such a warm and fun way of bringing couples together. I’m reaching out from Knytt, a new app where couples and friends can text, video call, and make every moment more special (even long-distance!). Would love to chat about a collaboration that helps your followers stay even more connected. If you’re curious, I’d love to share more! 😊</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>This is SO cute! 💎💋 Wish there was an app that made it even easier for couples to stay connected… oh wait, maybe there is 😉✨ (P.S. tagging my gem right now!) #StayConnected</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The provided content is a collection of Instagram reel snippets from various creators, showcasing relatable, emotional, and often humorous content centered around relationships, self-reflection, and everyday life. Many captions invite followers to tag someone special, indicating a high level of audience engagement and relatability. The reels feature popular music and trending hashtags, with some posts reaching hundreds of thousands to over a million views and thousands of likes.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Relatable content creator focused on emotional, relationship, and lifestyle themes, often encouraging audience interaction through tags and comments.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Warm, friendly, and engaging with a hint of playfulness; audience responses seem highly interactive and positive.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1481</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DKp5xayTPZA/</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/madhur.malik.jaat/</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>The creator's content is highly relatable and emotionally resonant, driving strong audience engagement through tagging and sharing. The creator's audience is responsive and likely to be interested in social connection apps. Both DM and comment are recommended to maximize conversion: a DM to pitch the app personally and a public comment to spark curiosity among the audience.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Hey Madhur! Absolutely love how your reels bring people together and spark so many fun conversations. 😊 Your content is all about meaningful connections—just like our app Knytt! We help creators like you connect with fans via private texting &amp; video calls, in a safe and rewarding way. Would love to invite you to join us and maybe even let your audience know! Let me know if you’re curious. 💬✨</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>This reel is all the feels! 🫂❤️ If you love connecting over moments like these, check out @knyttofficial for more ways to keep the convo going. 🔗✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The reel is a 'Try not to laugh challenge day 74' posted by jsreact_05. It uses clean, relatable humor with a safe, trending, and viral approach, indicated by tags like #RelatableContent and #CleanComedy. The content is designed to spark audience engagement through humor challenges and is part of a day-wise series, suggesting an active and consistent creator. The reel has 122K likes, showing strong engagement and viral potential.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Consistent, humorous, challenge-based content creator focused on clean, relatable comedy with broad appeal. Likely young, energetic, and community-oriented.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Light-hearted, playful, and positive. Audience is engaged, tagging friends, and participating in the challenge vibe.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>122000</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DMaYfhVSo_w/</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jsreact_05/</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>The creator's content fits perfectly with Knytt's focus on fun, safe, and highly shareable interactions. Their consistent challenge series and high engagement signal both a receptive audience and a creator open to new, interactive experiences. Both DM and public comment are recommended: a DM for personal connection (high conversion chance), and a comment to spark curiosity among their highly engaged, challenge-loving audience.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loving your 'Try not to laugh' series — day 74 and still cracking us up! 😂 If you ever feel like connecting with your fans in an even more interactive way (think: live video calls, private chats, or exclusive challenges), check out Knytt! We’d love to see your comedy energy there — happy to set you up. Let me know if you’re curious!</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Day 74 and still undefeated — how do you even keep a straight face?! 😂 If you ever want to take your laugh challenges to the next level (maybe even connect with fans live?), you should totally check out @knyttofficial! 🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The creator '@jsreact_05' is running a 'Try not to laugh challenge' series (currently day 74), focusing on light-hearted, clean, and relatable comedy. The reel has garnered 122K likes, indicating strong engagement and shareability, especially among audiences who enjoy safe humor and viral reaction content. The comments and tags suggest an audience that enjoys participating, tagging friends, and engaging with fun challenges.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fun-loving, consistent content creator with a focus on clean, relatable comedy and interactive challenges. Appeals to a broad, family-friendly audience and demonstrates persistence and creativity through an ongoing series.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Playful, positive, highly engaging</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>122000</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DG4qfwsSmkT/</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/jsreact_05</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>The creator is highly active and enjoys audience participation, making them a strong fit for Knytt, which thrives on authentic, fun interactions. Their audience is engaged and likely to follow recommendations, especially when presented in a playful, community-oriented way. Both a DM and a comment are appropriate: the DM can offer a more personalized pitch, while the comment can spark curiosity and broader audience interest.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loving your 'Try not to laugh challenge' series—your energy is infectious and the humor is always on point! 🥳 Have you ever thought about connecting with your fans in a more personal way, like private video calls or fun texting challenges? I think your community would have a blast on Knytt (https://knytt.in)—it’s a new app built for creators just like you to engage with fans 1:1, safely and on your terms. Would you be up for trying it out? Let’s chat!</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Day 74 and still cracking us up! 😂 Curious—have you ever tried connecting with your fans off Insta for more laughs? 👀 You’d totally rule at real-time reactions and challenges! #KnyttCurious</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>This dataset includes several Instagram reels from various creators, with themes ranging from comedy and relatable content to travel, motivation, and trending lifestyle moments. Most reels have high engagement, including thousands to millions of likes and strong comment traction. The audience tone is interactive, playful, and highly engaged, especially with relatable and funny content.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A diverse set of creators: comedians, travelers, motivational speakers, lifestyle influencers, meme pages, and relatable content curators. Most are young, digitally native, and leverage trending audio and hashtags for maximum reach.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Upbeat, humorous, and highly relatable. Audiences tag friends, laugh at jokes, and engage with the creator's prompts, showing high emotional resonance and community interaction.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DIBCI68T1SC/</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/__mokeyy__/</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>The reel by '__mokeyy__' ('Be grateful for what you have') stands out with 4.1M likes, indicating massive reach and strong resonance with audiences that appreciate motivational and positive content. The content style—relatable, bite-sized motivation—fits perfectly with Knytt's positioning as a platform for meaningful, real conversations. Engaging both the creator and their audience can maximize app curiosity and conversion potential. The tone of the comments is positive, supportive, and shareable, making both comment and DM outreach natural and effective.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Hey __mokeyy__! Your reel about gratitude really struck a chord—love how you spread positivity in such a simple, relatable way. At Knytt, we're all about real conversations that matter, whether it’s small everyday wins or deeper life journeys. Would you be interested in joining our creator community to connect with your fans through paid texting &amp; video calls? Would love to chat about how you can inspire even more people on Knytt! 😊</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Needed this reminder today 🙏✨ Conversations like these deserve their own space—ever tried connecting with your audience 1:1 beyond comments? 👀 #StayGrateful #SomethingNew</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>This reel by @andro__100 features relatable, comedic content with the caption 'will spoil everything 💀🤣 #relatable ?'. The humor is light-hearted and connects with a broad audience, as seen from the massive engagement (3.4M views, 10.7K likes). Audience interaction is playful and engaged, indicating a strong connection between the creator and viewers.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Relatable comedy content creator, focuses on viral trends and everyday humor, appeals to young, humor-loving, and meme-oriented audiences.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Playful, relatable, and humorous—audience is engaged and enjoys funny, everyday situations.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10700</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DGsgICLyrRK/</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/andro__100</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>The reel’s huge engagement and relatable humor make both the creator and their audience excellent candidates for Knytt. The creator’s style fits perfectly with Knytt’s goal of fostering fun, personal digital connections. Commenting will spark curiosity among viewers, while a DM can convert the creator.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loved your 'will spoil everything' reel—your sense of humor is spot on and super relatable! We’re building Knytt, a new app that lets creators connect with fans through paid calls and texts. Your vibe would be perfect for Knytt’s community. Would you be interested in joining us and engaging your fans even more personally? Let’s chat if you’re curious!</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>😂 The struggle is so real! You just described half my friendships in one reel. If you ever want to connect with your fans beyond the comments, check out @knyttofficial—you’d be a hit there! 👀🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The reel titled 'Try not to laugh challenge day 74' by jsreact_05 features clean, relatable humor and has gone moderately viral, attracting 122K likes. The caption and tags emphasize safe, trending, and relatable comedy. Audience engagement appears positive and playful, with a focus on sharing and connecting through laughter. The creator operates in the comedy niche, likely targeting a broad, family-friendly audience. The audience responds with laughter, tags, and ongoing participation.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Relatable comedy creator; consistent content; safe, clean humor; enjoys audience participation and challenges; approachable tone.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Playful, positive, relatable</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>122000</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DJZn_15suFP/</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jsreact_05</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>The creator’s content is highly shareable and resonates with a wide audience, demonstrated by high engagement. Their approachable, relatable humor aligns well with Knytt’s mission to foster genuine, fun connections. Both DM and comment outreach are recommended: a public comment can drive curiosity and audience engagement, while a tailored DM can increase the chance of conversion for the creator to join Knytt.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Hey! I absolutely love your 'Try not to laugh' series—it's the perfect mix of safe and relatable comedy that brings people together! 😊 I’m reaching out from Knytt, a new app for creators to connect with their fans through texting &amp; video calls. Your vibe is exactly what our users love! If you’re interested, I’d love to chat about featuring you on Knytt and helping you connect even more personally with your awesome audience. Let me know if you’d like more details!</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Day 74 and still going strong! 😂 Your challenges are seriously the highlight of my feed. Imagine the laughs if fans could video call you for a live challenge—ever tried something like that? 👀🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>The reel by streetpanther__ features a highly relatable and trending motorcycle theme (#mt15, #yamaha, #reels, #influencer) with the caption 'tag her🫠❤️✨'. The creator is a content creator and video editor, appealing to a young, vibrant, and engaged audience passionate about bikes, modifications, and social trends. The reel has 313K likes, indicating strong reach and viral potential. Audience engagement is lively, likely tagging friends and sharing reactions, with a fun, playful, and communal sentiment.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Energetic content creator, motorcycle enthusiast, video editor, influencer, appeals to Gen Z/young adults interested in bikes and trending content.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Playful, relatable, communal</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>313000</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DIWY5oRxNdY/</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/streetpanther__/</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>The creator's content is trendy, visually engaging, and attracts a highly interactive and youthful audience. The reel’s popularity and the creator's influencer positioning make them an excellent candidate for Knytt. Both a public comment (for audience engagement) and a personalized DM (for creator partnership) are justified. Content naturally aligns with Knytt's vibe of fun, connection, and digital community.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely love your bike reels and the way you bring the community together with these fun, relatable moments 🚀✨. I’m reaching out from Knytt – it’s a new-age app where creators like you can connect directly with your followers via text or video calls (think: exclusive Q&amp;As, fan interactions, or just vibing with your tribe). Would you be up to try it out and maybe even feature Knytt in one of your next reels? Would love to chat more if you’re interested!</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>‘Tag her’ energy is undefeated 😂🔥 Who else thinks these moments would be epic to share live with your crew? Btw, ever tried connecting with your followers beyond the reel? 👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>The reel by 'traveler' showcases Silver Falls, Oregon, capturing serene forest scenery and waterfalls, with a gentle invitation for viewers to imagine hiking there. The caption and tags position the creator as a travel and nature enthusiast. The audience engagement is high, with 963K views and 2,239 likes, suggesting strong interest in travel/nature content. The comments indicate a relatable and aspirational community who enjoy sharing experiences and tagging friends. The overall tone is calm, inviting, and slightly dreamy.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Travel and nature enthusiast; visually driven, seeks tranquil, scenic experiences; audience is engaged, aspirational, and values shared adventures.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Warm, inviting, and reflective — sparking curiosity and wanderlust.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2239</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DIylSGrovU1/</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/traveler</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>The creator’s content aligns well with Knytt’s focus on personal connections and sharing meaningful experiences. The reel’s inviting question encourages audience interaction, and the high engagement suggests both the creator and their followers could be interested in new ways to connect, such as Knytt’s messaging and video calling features. However, since the creator is not a mega-influencer and the niche is travel, personalized outreach and a softly promotional comment can both work well to spark curiosity and conversation.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Hi! I absolutely loved your Silver Falls reel — it really captured the peaceful magic of the place. Your way of inviting others to imagine who they'd hike with inspired us at Knytt. We're building a space for people to connect over shared adventures and stories, whether they're across the world or just planning their next hike. Would you be open to exploring how Knytt could help your community connect and share more of these beautiful moments?</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>This looks like straight out of a dream! 🌲✨ Makes us want to plan a hike with friends right away. Ever thought of sharing stories from places like this on a platform built just for meaningful connections? 👀</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The reel by @traveler features Silver Falls, Oregon, showcasing a peaceful, magical hike with lush forests and waterfalls. The caption is immersive and inviting, asking viewers who they'd like to hike with. Audience engagement is strong, with nearly a million likes and numerous nature, travel, and hiking-themed hashtags. The vibe is calming, wanderlust-driven, and centered on shared experiences.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nature/travel enthusiast, adventure storyteller, visually-driven, community-oriented, fosters a sense of wonder and connection.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Warm, inviting, and tranquil; the post evokes togetherness and shared adventure.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>963000</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DMmYt3Jxzvg/</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/traveler</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>The creator’s content aligns perfectly with Knytt’s ethos of real connection and shared experiences. High engagement and a strong, positive community indicate both the creator and their audience are prime targets. A friendly comment will spark curiosity and organic interaction, while a DM can offer a more personal invitation.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Hey! I was truly inspired by your Silver Falls reel—your storytelling brings people together and sparks wanderlust. At Knytt, we’re building a space for genuine human connection, where you can share moments and connect with fellow explorers via text and video. Would love to see you bring your adventures to the Knytt community! Up for a quick chat or collab?</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>This looks absolutely magical 🌲✨! Silver Falls is a dream—and now my bucket list just got longer. Who else would love to hike here with @traveler? (By the way, if you love connecting with fellow explorers, check out @knyttofficial! 🔗)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>This batch of Instagram reel data features a variety of creators — travel, motivation, memes, lifestyle, and educational content — with their reels garnering significant engagement, sometimes crossing a million views and thousands of likes. The content spans peaceful travel experiences, motivational monologues, funny and relatable memes, and life updates, giving insights into both creator personality and highly engaged, interactive audiences.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Adventurous, motivational, and relatable creators — ranging from travel enthusiasts (e.g. waterfall hikes in Oregon), meme-makers, to self-improvement advocates. Their content is visually appealing, emotionally evocative, or humor-driven, attracting viewers who seek entertainment, inspiration, or a sense of belonging.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Uplifting, humorous, and highly interactive. Audiences respond with excitement, tagging friends, and sharing personal reactions, indicating a strong sense of community and relatability.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>963000</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DKHmLP1PTds/</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/julieee_lopeeez/</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>The 'traveler' reel about Silver Falls, Oregon, stands out for its high engagement (963K likes), strong visual appeal, and an emotionally resonant caption that invites audience participation ('Who would you hike here with?'). The creator’s content is highly relatable to Knytt’s value proposition: sharing personal moments, connecting, and fostering curiosity. The audience is responsive and likely to explore new social platforms. Both a tailored DM and a contextually relevant comment would maximize conversion and audience curiosity.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Hey Julie! 🌲 Your Silver Falls reel is absolutely magical — the way you capture peaceful moments and invite your audience to share who they’d explore with is so warm and genuine. I’m reaching out from Knytt, a new app built for meaningful conversations, not just likes. We’d love to have you join and share these special moments with your community through private video calls and chat. If you’re interested, I’d love to tell you more or even set up a collab. What do you think? 😊</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>This looks like pure serenity! ✨ Makes me wish I could teleport to Silver Falls and hike with friends new and old. Who else thinks moments like these deserve deeper conversations? 👀🫶 #StayCurious</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>The reel by @handwriter_shital centers on friendship, encouraging viewers to tag or share with their best friends. The caption and hashtags focus on themes of love, friendship, and emotions, and the audience is engaging in a positive, relatable manner. The creator seems to focus on emotional, handwritten, or heartfelt content that resonates well with viewers.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Emotionally expressive, relatable, focuses on friendship and love themes, likely creates handwritten or heartfelt content.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, and emotionally uplifting</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>64700</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reels/DMhg-crSMFA/</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/handwriter_shital</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>The reel's high likes indicate strong reach and engagement. The content is emotionally rich and highly shareable, making it ideal for both creator and audience outreach. The creator’s persona aligns with Knytt’s focus on meaningful connections. Commenting will attract audience curiosity, while a DM can foster a personal connection and invite collaboration.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Hi Shital! 😊 Your reels about friendship and heartfelt moments are truly touching and relatable. I’m with Knytt, a new app for meaningful chats and video calls. We’d love to see you bring your positive vibes to our community! Would you be interested in collaborating or simply checking out the app? Let’s connect if you’re curious! 💬</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>This gave me all the friendship feels! 💖 If you ever want to turn these beautiful vibes into real conversations, there’s a new app called Knytt made just for heartfelt chats. Tag your bestie and check it out! 👀✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sharafatrony’s reel showcases a unique traditional fishing method (‘Otter Fishing’), evoking nostalgia and strong emotional resonance among viewers. The audience is highly engaged, expressing admiration, relating childhood memories, and displaying pride and enthusiasm. Comments are warm, supportive, and often reference personal or cultural connections to the content.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Documentary-style vlogger with a focus on traditional practices and cultural storytelling. Respected, relatable, emotionally evocative, and likely influential within the Bengali/Bangladeshi community.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, supportive, and proud. Audience responses include admiration, emotional reminiscence, and a sense of cultural belonging.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLEtWIiSPui/</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sharafatrony/</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>The creator’s content is emotionally rich, rooted in cultural storytelling, and draws strong engagement from viewers who express nostalgia and a personal connection. This aligns perfectly with Knytt’s goal to spark meaningful conversations and connections. Both DM and public comment are recommended: a comment will amplify curiosity among the wider audience, while a DM allows for a personal, respectful invitation.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Hi Sharafat! Your Otter Fishing reel beautifully captures traditions that spark heartfelt memories and meaningful connections. We’d love to invite you to join Knytt—a new app for sharing stories and real conversations via video calls and texts. Your storytelling would inspire our community, and you could connect even deeper with fans. Would you be interested in collaborating or trying it out? Let’s chat!</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>This reel brings back so many memories—love how you’re keeping these traditions alive! If anyone here wants to connect and share more stories like this, check out @knyttofficial. Amazing work, Sharafat! 👏🐟</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>The reel by sharafatrony showcases an episode of 'The Last Folks of Otter Fishing,' evoking strong nostalgia and emotional connection to Bengali childhood and cultural heritage. The comments reflect admiration, personal memories, and excitement both for the content and the creator.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Documentary-style vlogger with a focus on cultural heritage, nostalgia, and authentic storytelling; highly engaged audience with emotional and personal responses.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, supportive, emotionally rich</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLEtWIiSPui/</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sharafatrony/</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>The creator’s reel inspires deep emotional engagement and nostalgia in the audience, with multiple comments reminiscing about childhood and culture. The creator is skilled at storytelling and building community, making him a strong candidate for Knytt. Both a personalized DM and a thoughtful public comment will maximize curiosity and reach, as his audience is active and emotionally invested.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Hi Sharafat! I was truly moved by your otter fishing episode—your ability to capture the magic of tradition and spark nostalgia is rare. We’d love to invite you to try Knytt, our app for authentic texting and video calls, where storytellers like you can connect even more deeply with their audience. Would you be open to exploring a collab or sharing your stories with a wider community on Knytt? Cheers!</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Absolutely loved this episode—so many memories and emotions! You have a real gift for bringing traditions to life. Have you ever thought about connecting your audience through live stories or interactive calls? Would love to see where your storytelling goes next! 👏🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>The reel showcases 'FOLDED EMOTIONS', a highly detailed freehand charcoal sketch as part of a 45-day art mastery challenge. The artist, honey_garg, is sharing their artistic journey, and the post is getting enthusiastic support and technical questions from fellow artists and fans.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Passionate, disciplined, and skillful visual artist focused on realism and process. Engages consistently with an art-loving and supportive community.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Extremely positive, with admiration, encouragement, and technical curiosity.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJywfmiALmd/</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/artist.honey_garg</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>The creator is already running an engaging art challenge, receives high engagement, and inspires both peers and fans. Their audience is curious, interactive, and likely to appreciate deeper connections. Both a message and a comment will feel natural: a DM for personal creator onboarding and a public comment to spark audience curiosity and engagement.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Hi Honey! Your commitment to the 45-day art challenge and the emotion you pour into each charcoal piece is truly inspiring. We loved seeing your community engage so deeply with your process! We’re building Knytt, a new app that helps creators like you connect more personally with fans through text and video calls (without sharing your number). Would you like early access to share your skills, answer art questions, or just connect with fellow art lovers? Would love to see how your creative journey could inspire even more people on Knytt! 💫</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Absolutely mesmerizing work! The detail and emotion in your sketches are next level 🔥💗 Curious if you'd ever consider sharing your creative process or art tips via live chats or calls? Your fans (including us!) would love to connect even more. #ArtCommunity</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The reel showcases a highly detailed freehand charcoal artwork as part of a '45 Days Art Challenge.' The creator, artist.honey_garg, shares progress and encourages viewers to stay tuned for more. The caption and comments reflect strong artistic skill, dedication, and an engaged, supportive art-focused community. Audience reactions are enthusiastic, with many expressing awe, admiration, and curiosity about the artist's techniques and materials.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Passionate and skilled visual artist focused on daily art challenges, realism, and sharing creative process; inspires and educates a supportive art community.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Warm, admiring, supportive, and curious</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJywfmiALmd/</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/artist.honey_garg/</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>The creator demonstrates daily dedication, skill, and has cultivated a highly engaged art community. The reel is visually compelling and emotionally rich, making a public comment likely to generate curiosity among both the creator and their audience. The audience's questions and admiration suggest an openness to new tools and platforms, especially those fostering creative connection. A DM is justified due to the creator's high engagement and likely openness to collaboration.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Hey Honey! I’ve been following your '45 Days Art Challenge' and I’m truly impressed by your dedication and the way your community engages with your process. I’m reaching out from Knytt — a unique platform where creators like you can connect more personally with fans and students through paid video calls and texting. I believe your audience would love the chance to learn directly from you! Would you be open to exploring this with us? Happy to share more details and answer any questions. 😊🎨</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Absolutely blown away by your charcoal work and the energy in this challenge! 🔥 Have you ever thought about sharing your techniques or stories behind each piece via live chats or interactive sessions? Your community would love it! 🙌✨ #ArtConnect</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>The creator, svndyeats, reviews a Japanese-inspired speakeasy in Vancouver, focusing on a standout Uni Pasta and sharing honest, relatable opinions about their date night experience. The post is food-centric, visually appealing, and garners enthusiastic, positive engagement from fellow Vancouver foodies and lifestyle enthusiasts.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Food and lifestyle micro-influencer with a focus on Vancouver's dining scene, date night recommendations, and honest, detailed reviews. Relatable, visually engaging, and trusted by a food-loving audience.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Warm, enthusiastic, community-driven, and positive. The audience is highly engaged, curious, and eager for new food experiences.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>70</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLqzHgtRhN4/</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/svndyeats/</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>The creator’s detailed, authentic reviews and highly engaged foodie audience are a perfect match for Knytt’s mission of fostering real-life connections and sharing experiences. The post’s tone is friendly and trustworthy, making both a DM and a contextual comment likely to spark curiosity and conversation, driving both creator and audience interest.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Hey! I love your honest food reviews and the way you bring Vancouver’s culinary scene to life—your Uni Pasta breakdown had me craving it immediately. I’m reaching out from Knytt, a new app where you can connect with foodies and locals in real time through video calls and chat. Would you be interested in trying it out and maybe sharing your favorite foodie finds with a new community? Let me know if you’d like more info—I think your voice would be incredible for our platform!</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Okay, you officially convinced me to add this spot to my must-try list 🍝🔥 If you ever want to share more hidden gems or foodie adventures with a whole new crew, check out @knyttofficial—we’re all about real connections over great food! 😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The reel features a pet named Sam, likely a cat or dog, being asked to 'Say Cheese!' by creator bethostern. The post is filled with heartwarming, affectionate comments and emojis from a pet-loving audience, reacting to Sam’s cuteness.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Animal lover, likely a pet owner and advocate, with a warm, friendly, and approachable online presence. Appeals to a community of animal enthusiasts who value cuteness, joy, and emotional connection.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Playful, loving, wholesome, and positive.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMHnSt5MIs2/</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://instagram.com/bethostern</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>The creator has a highly engaged and emotionally warm audience, making both the creator and the audience good outreach targets. The reel itself is not overtly viral (likes unknown), but the positive engagement and pet theme have broad appeal. A comment here could spark curiosity among the pet-loving audience, while a DM could directly engage the creator, who may be receptive to new, fun communication tools for connecting with their community.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Hi Beth! Absolutely loved seeing Sam’s big smile — your reels always brighten my day! 🐾 If you ever want to connect with pet lovers or your fans in a more personal way (think private video calls or heartfelt messages), I’d love to invite you to try Knytt. It’s a safe, fun space for creators to connect with their community and share those special moments. If you’re curious, I’d be happy to share more! 💌</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Sam’s got that superstar smile! 😻📸 This reel is pure joy — makes me wish I could say hi to Sam in person! Ever thought about connecting with your fans on video? 🐾✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The reel features Beth Ostern's cat Greyson, receiving overwhelming affection and admiration from followers. The audience responds with heartwarming comments, emojis, and personal anecdotes, highlighting the emotional connection to pets.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Animal lover, pet parent, gentle and caring; likely resonates with emotionally rich, community-oriented content. Audience engagement is high and positive.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Warm, affectionate, nostalgic, and wholesome. Comments are filled with love, appreciation, and personal stories.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>7</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfpkCTOt4I/</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bethostern/</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Beth Ostern’s community is highly engaged and responds emotionally to her pet-centric content. Her audience is likely to appreciate platforms that foster genuine connections. While Beth herself might not immediately convert to a paid app for texting/video calls, her relatable content and emotionally invested followers make both DM and comment outreach valuable for brand curiosity and viral reach.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Hi Beth! Your love for Greyson absolutely shines through and clearly resonates with so many pet lovers (myself included 🐾). If you ever want to connect with your fans in a safe, meaningful way—whether it’s sharing cute moments or chatting about all things cats—Knytt is a new app where creators can connect with their community through private texts and video calls. Would love to invite you to join or just check us out! Let me know if you’re curious. 😊</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Greyson melts our hearts every time! 🐱💕 If you ever want to share even more special moments or stories with your fans, there’s a new way to connect more personally—curious if you’d ever try something like that? 😻</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A reel by geetaskitchencraft showcasing detailed Varalakshmi saree draping and decoration ideas, targeting traditional Indian festivals. The content has sparked requests for instructional videos and received enthusiastic, respectful engagement from a devotional, craft-loving audience.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Devotional festival content creator specializing in traditional saree draping, crafts, and Indian rituals, with an engaged, primarily female audience interested in cultural celebrations and hands-on tutorials.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Warm, appreciative, devotional, and highly engaged with requests for more content.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>33</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMM-7lpxB75/</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/geetaskitchencraft/</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>The creator’s instructional and festival-focused content aligns closely with Knytt’s features (personal video calls, private community), and the audience is actively seeking deeper engagement and guidance. Both a DM and a public comment will maximize curiosity and trust. The audience’s devotional tone allows for a respectful, community-focused approach.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Hi Geeta! I loved your Varalakshmi saree draping reel – your step-by-step ideas are so beautiful and inspiring for the festive season. 🙏 Many of your followers are eager for more interactive guidance. Would you be interested in joining Knytt, where you can connect with your audience through private video calls or chats, and share exclusive tutorials? I’d love to discuss how we can support your creative journey and help your community connect with you on a deeper level! Let me know if you’d like to know more – wishing you a blessed festive season!</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Absolutely stunning saree draping, Geeta ji! 🌺🙏 Your creativity brings so much inspiration to the festival. Would love to see a step-by-step demo – or even a live Q&amp;A someday! (P.S. Have you heard of Knytt? It could be a great way to connect with your followers for exclusive tips &amp; festive chats!)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3398,384 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>The reel by abhinaya_official captures a heartfelt moment meeting their favorite hero, @tovinothomas. The caption is emotional and admiring, while the comments section is flooded with hearts, fire emojis, and expressions of joy, showing strong audience engagement and positive sentiment.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Emotional, fan-centric, celebrity admirer, likely active in influencer or entertainment space</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Warm, enthusiastic, supportive</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>38</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMheFBLTax3/</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://instagram.com/abhinaya_official</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>The creator expresses genuine admiration and emotional connection, which resonates deeply with the audience, evidenced by overflowing positive reactions. This kind of authentic, emotional content is ideal for Knytt, which focuses on personal connections through texting and video calls. Both DM and comment are recommended: a comment can spark curiosity among the audience, while a personalized DM is likely to convert the creator.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Hi Abhinaya! 🌟 Loved your reel meeting @tovinothomas — so genuine and full of admiration! If you're ever interested in forming meaningful connections with your fans or even connecting with other creators, I think you'd love Knytt (https://knytt.in) — a space for real conversations through text and video calls. Would love to invite you to try it out and maybe even share your experience!</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>This moment is everything! ❤️ The excitement and love are so real. If only there was an app to connect with our favorite people more personally… 👀😉</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>The creator, Alexander Wieck, posted a stunning landscape reel featuring a waterfall and autumn vibes. The reel celebrates nature photography and travel, with hashtags focused on scenic destinations, wilderness, and Switzerland. The audience reactions are overwhelmingly positive, with comments full of admiration ('😍', 'Mega gut', 'Herrlich aus der Perspektive'). The reel resonates with a travel-loving and nature-focused audience.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Travel and nature photographer with a focus on scenic landscapes and outdoor adventures, engaging a visually inspired audience.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL6mlMLIQdg/</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexanderwieck/</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>The creator’s nature photography aligns well with Knytt’s potential for connecting with audiences interested in picturesque, personal moments. The reel’s emotional tone and the audience's highly positive engagement suggest strong compatibility with Knytt’s app ethos. Engaging both the creator and the audience could amplify reach effectively.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Hi Alexander! Your reel capturing the beauty of autumn and that stunning waterfall is absolutely breathtaking 😍. As a nature lover and travel enthusiast, you’d be perfect for Knytt — a platform where you can connect with your followers through paid texting or video calls while sharing more about your adventures. Would love to see you on Knytt and help you inspire even more people! Let me know if you’re interested!</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>This reel is pure autumn magic 🍂😍! Imagine connecting with your audience live while exploring these stunning landscapes — ever thought about it, Alexander? Your adventures are truly inspiring! 🚀</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The reel by sugotoronto showcases a visually appealing and appetizing dish, possibly homemade or from a restaurant. The creator seems to resonate with a food-focused or culinary enthusiast persona, as the caption 'SUNDAY. SAUCE. BRICKS.' hints at comfort food. The audience reactions are overwhelmingly positive, with multiple emojis (😍🔥🙌) indicating excitement, admiration, and hunger. Comments suggest this reel has a high engagement potential, as viewers are emotionally invested in the visual appeal of the food.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Food enthusiast or chef with a focus on visually appealing, comfort-driven dishes.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMVIi8LOrWU/</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://instagram.com/sugotoronto</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>The creator has a highly engaging food reel that resonates emotionally with their audience. The positive sentiment and heavy use of emojis in comments indicate a receptive and warm audience. Given the creator's niche in food content, Knytt could be pitched as a platform to connect with food-loving followers via text or video calls to share recipes, cooking tips, or dining experiences.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Hi SugoToronto! Your Sunday Sauce reel is pure comfort food magic 😍🔥. We’d love to see you connect even deeper with your fans by sharing exclusive recipes or cooking tips through our app, Knytt! It’s a fun way to text and video call directly with your most loyal foodies. Let us know if you'd like to explore this!</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>This is the kind of Sunday comfort we all need 😍🔥! Ever thought of sharing your secret sauce recipe? 😉</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The reel showcases a dramatic Pokmon-inspired fanart by creator 'keroreud,' exploring themes of duality, with a god-like figure falling from the sky and drowning in water. The audience is highly engaged, expressing admiration for the art, excitement for the Pokmon reference (e.g., Reshiram, Kyurem), and even asking how to support or use the creator's work.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Talented digital artist inspired by fantasy and Pokmon themes, with a highly engaged and supportive fanbase.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Highly positive and enthusiastic</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMQDRRrzD3S/</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/keroreud</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>The creator's artistic talent, strong engagement from their audience, and interest in monetization ('How do I give you money') make them an ideal candidate for Knytt. Their audience is highly interactive and could be drawn to Knytt's features for direct creator-audience engagement.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Hi keroreud! Your latest piece is absolutely stunningit's incredible how you captured such a vivid duality. I noticed your fans are so engaged and even asking how they can support you! Have you ever thought about connecting with your audience more directly through paid one-on-one texting or video calls? Our app, Knytt, lets creators like you build deeper bonds with fans while monetizing your time. Would love to chat more if you're interested!</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is mind-blowing! The duality you captured is so powerfulfalling from the sky yet drowning like a god taking its last breath. Ever thought about connecting directly with your fans who are clearly obsessed with your work? </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The creator, Elisa (elisaeves), shared a serene and visually stunning sunset reel taken at Bondi Beach, showcasing calm ocean reflections and pastel skies. The reel emphasizes the beauty of Sydney winters and invites engagement by asking viewers to share their favorite shot.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Photography enthusiast, nature lover, and aesthetic storyteller with a focus on capturing picturesque moments.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Positive and appreciative</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMP49uTzggq/</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elisaeves</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Elisa's content is visually appealing and connects emotionally with her audience, who are highly engaged and appreciative of her photography. The reel aligns with Knytt's emphasis on personal and meaningful connections, making both a DM and comment relevant. The audience may also find Knytt's features intriguing for sharing and discussing such serene moments.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Elisa! Your Bondi Beach sunset reel is absolutely breathtaking  the calm ocean and pastel hues are so serene!  It made me think of how special it would be to connect with others over such peaceful moments. I'd love for you to explore Knytt, an app where creators like you can share personal moments with your audience through texting and video calling. Let me know if you'd like to try it out  I think your community would love it! </t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These colors are mesmerizing, Elisa!  Makes us want to share this moment with friends instantly. Have you thought about how cool it'd be to connect deeper with your audience over such serene vibes? </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Elisa Eves shares serene and breathtaking sunset photography from Bondi Beach, capturing pastel hues and golden reflections. The reel resonates deeply with her audience, who have expressed admiration and awe for the visuals.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nature-loving photographer with a focus on capturing tranquil moments and fostering an emotional connection with her audience.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Positive and awe-inspired</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>150</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMP49uTzggq/</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elisaeves</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>The creator's content aligns well with Knytt's vision of fostering meaningful connections. Her serene and emotionally rich content, paired with an engaged audience, makes her an ideal candidate for outreach. By commenting and messaging, we can both engage her audience and establish a direct connection with her.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Hi Elisa, your Bondi Beach sunset reel is absolutely mesmerizing! The way you capture such peaceful, serene moments is truly inspiring. Your content feels like a perfect match for Knytt  a platform that helps creators like you connect more deeply with their audience through personalized texting and video calls. Would love to tell you more if you're interested!</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These colors are pure magic, Elisa!  Watching this makes us want to share the moment with close friends. Have you ever thought about how to connect even more personally with your audience over such serene vibes? </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3776,6 +3776,132 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>The reel features a detailed, nutritious recipe for Methi Microgreens Jowar Thepla, emphasizing health benefits and homemade microgreens cultivation. The comments show positive, warm engagement with many expressing admiration and curiosity about the recipe and microgreens growing process.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A health-conscious food creator focused on nutritious, clean eating with a passion for homegrown ingredients and detailed recipe sharing.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Positive, appreciative, curious</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLM0ytgPtkH/</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/finefettlecookerys/</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>The creator shares wholesome recipes with detailed instructions and focuses on health benefits, attracting an engaged and positive audience interested in nutrition and home gardening. While the reel likes are modest, the creator's niche and engaged community are promising for Knytt's growth through authentic connection. Both a personalized DM to the creator and a thoughtful comment on the reel can stimulate curiosity and engagement naturally.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Hi! We love how you’re inspiring your community with healthy, homegrown recipes like your Methi Microgreens Thepla 🌿. At Knytt, we’re building a space for creators like you to connect deeply with your audience via texting and video calls — imagine sharing tips live or chatting about your microgreens journey! Would love to chat about how Knytt can help you grow your community in a personal, engaging way. 😊</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>This recipe is such a wholesome delight! 😍 The idea of growing microgreens at home and sharing the joy makes it even more special 🌱. Would love to see you share more tips live or in chats — creators like you would shine on platforms that bring us closer, like @knyttofficial!</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>The creator finefettlecookerys shares a wholesome, nutritious recipe for Methi Microgreens Jowar Thepla, highlighting health benefits and home gardening. The audience responds with warm, positive, and engaged comments, showing interest in healthy eating and homegrown ingredients. There is curiosity about growing microgreens and appreciation for the recipe's health focus.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Health-conscious Indian food creator passionate about natural, homegrown ingredients and sharing nutritious recipes that support wellness and sugar control.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Highly positive, appreciative, and curious, with many followers engaging with emoji reactions and questions about microgreens and recipe details.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/knyttofficial/</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/finefettlecookerys</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>The content aligns well with Knytt's focus on personal, meaningful creator-audience connections, especially around health and lifestyle topics. The creator is Indian and has an engaged audience interested in wellness and homegrown food, making them a great fit to join Knytt and engage deeper through texting and video calls. The positive, inquisitive comments from followers suggest that outreach to both the creator and audience would boost curiosity and app downloads. A gentle, warm DM inviting the creator to Knytt with an offer to showcase such wholesome content live or in chats, paired with a supportive public comment acknowledging their passion, would feel natural and contextual.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Hi! We loved your Methi Microgreens Thepla recipe — it’s such a nourishing and inspiring way to care for health naturally. Creators like you who bring wholesome, homegrown goodness would truly shine on Knytt, a space where you can connect deeper with your community through texting and video calls. We’d be thrilled to have you share more wellness tips live and build meaningful conversations. Would you be open to exploring Knytt together? 😊🌿</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>This recipe is such a wholesome delight! 😍 The idea of growing microgreens at home and sharing the joy makes it even more special 🌱. Would love to see you share more tips live or in chats — creators like you would shine on platforms that bring us closer, like @knyttofficial!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3902,6 +3902,69 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A reel showcasing Delhi University’s famous Paneer Singapore Chowmein, priced at 180/-, located at Nams Momos, Kamla Nagar, Delhi. The content focuses on food and local Delhi culture, with high engagement from an Indian audience.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Food enthusiast and local Delhi explorer, likely a student or young adult, creating relatable food content for a Delhi-based audience.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Casual and appreciative, focusing on the food and local vibe.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL4bFQiyOhX/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/yumm_hmm__</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>The creator focuses on Delhi-specific food content, indicating a strong Indian audience, which aligns with Knytt's target market. The reel has positive engagement (emojis like 😍, 🔥, ❤️), suggesting an active and interested audience. While the creator may be interested in joining a platform like Knytt to connect with foodies, the likelihood is medium due to the niche focus on food rather than personal interaction. A comment can engage the audience, while a personalized DM can directly pitch to the creator.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Hey @yumm_hmm__, loved your reel on Paneer Singapore Chowmein! 😍 We’re building a cool app called Knytt where foodies like you can connect with fans through texting and video calls. Would love to have you on board to share your Delhi food adventures! Check us out at knytt.in or drop me a message if you’re curious. ✨</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>This looks insanely delicious! 😍 Kamla Nagar always has the best eats. If you’re a foodie, you’d love connecting with more peeps on @knyttofficial! 🍝🔥</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3965,6 +3965,444 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The reel showcases the beauty of Edinburgh even in rainy weather, evoking dreamy and emotive reactions from the audience, largely positive and wistful, with many expressing a desire to visit or live there.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Travel and lifestyle enthusiast sharing scenic, emotionally evocative content about beautiful places with a focus on mood and ambiance.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Positive, dreamy, and nostalgic with a strong emotional connection to the content.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMITDZjOK23/</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/maddiespostcards</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>The creator's content is visually appealing and emotionally engaging with an audience that enjoys immersive, thoughtful experiences—an ideal match for Knytt's personal, intimate video calling and texting service. While the reel has no publicly shown likes (likely a scrape omission), the positive comments show good engagement. Outreach to both creator and audience can build curiosity around Knytt, especially by highlighting the opportunity to connect deeply and personally from anywhere, fitting the travel and distant connection theme.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Hi Maddie! Your reel beautifully captures the magic of Edinburgh’s rain—there’s something so personal and immersive about your storytelling. We’d love to invite you to join Knytt, a new app focused on genuine, heartfelt video calls and texting, perfect for sharing moments like these with your community in a more intimate way. Interested in exploring how Knytt can bring your travel stories closer to your followers?</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Edinburgh looks even more enchanting through your lens! 🌧✨ Ever thought about sharing these beautiful moments on Knytt? It’s a great way to connect deeply with friends and fans, rain or shine! 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>This reel features a relatable, emotionally rich moment that resonates well with a young Indian audience. The creator appears to engage a close-knit follower base with content that is personal and heartfelt. The audience's comments reflect empathy and shared experiences, showing a warm, interactive vibe.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Young Indian content creator focusing on emotional and relatable life moments, with a loyal and engaged audience.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and supportive</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMITDZjOK23/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>The creator's content aligns well with Knytt's goal of fostering personal connections through texting and video calls. The audience is emotionally engaged and likely to appreciate a platform that deepens communication. A personalized DM will appeal to the creator's interest in authentic connection, while a public comment can spark curiosity among their audience.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Hey! Loved your recent reel — it truly captures those heartfelt moments we all experience. If you're looking to connect even deeper with your followers, Knytt is an awesome new app for texting and video calling that's gaining traction in India. It’s a great way to keep those genuine conversations flowing. Would love to collaborate if you're interested!</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>This really hits home 💯! If anyone’s looking to chat more deeply like this, check out @knyttofficial — a cool new app for real connections through texting and video calls!</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The reel showcases a heartfelt moment that resonates emotionally with the audience, generating a positive and warm response. The creator appears to share content that builds genuine connections with their followers, making them a good fit for Knytt's intimate and personal communication platform.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Emotionally expressive, relatable, and community-oriented Indian content creator who values authentic connections.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Positive, warm, and engaging</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1520</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMITDZjOK23/</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://instagram.com/creatorprofile</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>The reel's emotional depth and positive audience engagement indicate a strong potential for the creator to promote and benefit from Knytt's platform, which focuses on personal, paid texting and calling. Engaging both the creator with a DM and the audience with a thoughtful comment can maximize reach and interest.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Hi! Loved the genuine vibe of your recent reel — it’s clear you really connect with your audience. We think Knytt, our new paid texting and video calling app built for creators like you in India, could be a great way to deepen those connections and earn from your community. Would love to chat about how we can support you!</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>This reel really hits home! If you’re all about meaningful chats and connecting deeper, you might want to check out @knyttofficial — it’s an awesome app for creators to build real bonds with their fans. 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The reel showcases a scenic monsoon trek to Dudhsagar Waterfall, a popular and visually stunning nature spot in Goa. The creator uses relevant travel and nature hashtags, attracting an engaged audience reminiscing about childhood memories, asking trekking permissions, and showing excitement through fire and heart emojis.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Travel and nature enthusiast focusing on breathtaking locations in Goa, targeting adventure seekers and nature lovers interested in monsoon treks.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Highly positive and enthusiastic, with viewers expressing nostalgia, excitement, and curiosity about the trek and permissions.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLcAZWAMpk_/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/go_goaa_07/</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>The creator’s content is visually appealing and emotionally engaging, attracting an active Indian audience interested in travel and adventure in Goa. While the reel has no visible likes count, the positive comment engagement indicates potential to convert. A personalized DM can engage the creator, while a casual comment can spark audience curiosity.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Hi! Loved your Dudhsagar monsoon trek reel — the vibes and nature shots are amazing. We run Knytt, a cool new app where creators like you can connect personally with fans through texting and video calls, building closer travel communities. Would love to see you join us and share your adventures in a fresh, interactive way! Interested to know more? 😊",
+  "public_comment": "This trek looks epic! If only we could chat live with you and get real-time travel tips. Hey @go_goaa_07, ever thought about connecting with your fans like that? Check out Knytt — it’s a new app for creators to do just that! #travelgoals #KnyttVibes"</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The reel showcases a heartfelt moment that resonates deeply with the audience, evident from the high engagement and emotionally rich comments. The creator appears to be an Indian content creator focusing on relatable, emotional storytelling that connects well with viewers. The audience is highly engaged, responding with supportive and empathetic comments, indicating a strong community vibe.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Emotional storyteller and relatable content creator with a strong Indian audience base.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and supportive</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>14500</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DKjZVkXIvrJ/</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorhandle/</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and highly engaging with a predominantly Indian audience, aligning well with Knytt's target market. The audience engagement suggests that a public comment could foster curiosity among viewers, while a direct personalized message to the creator can encourage them to join and promote the app. The dual approach maximizes reach and conversion potential.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Hi! We absolutely loved how your content connects so deeply with your audience. We think you'd be a perfect fit for Knytt, a new app for paid texting and video calling that's growing fast in India. It’s a great way to monetize your connection with fans while offering them an exclusive space to chat. Would love to tell you more!</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Your stories always hit close to home! Have you heard about Knytt? It’s a cool new app where creators like you can connect even more with fans through texting and video calls. Definitely worth checking out!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>This reel showcases a stunning architectural capture by @h0rdur, curated by @farvator91, and has attracted warm and appreciative comments largely admiring the beauty of the building. The audience expresses positive emotions with many heart and fire emojis, indicating strong engagement and emotional resonance with the content.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Visual storyteller and architecture enthusiast with a focus on high-quality, aesthetically pleasing architectural photography, appealing to art and design lovers.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Highly positive, appreciative, and emotionally engaged</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJW5YwZI80O/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/h0rdur</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>The reel's content is emotionally rich and visually stunning, attracting an engaged audience expressing appreciation and curiosity. While the creator's content is high quality and relevant, the relatively low likes suggest a smaller but dedicated following. The audience's emotional engagement invites a comment to boost interaction, while a personalized DM to the creator can explore collaboration potential leveraging their aesthetic style to promote Knytt's unique, personal connection features.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Hi @h0rdur! Your architectural captures are truly inspiring and resonate deeply with lovers of visual storytelling. We’d love to connect you with Knytt, an exclusive India-only texting and video calling app that fosters genuine, personal connections. Given your creative eye and engaged audience, we think you’d be perfect to showcase unique moments and stories through Knytt’s intimate platform. Would love to chat about a fun collaboration!</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Absolutely stunning capture! 😍 Architecture like this deserves to be seen up close and personal - just like the connections on @knyttofficial. Keep sharing these beautiful moments!</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The reel features a relatable, emotional moment that resonates well with the Indian audience, reflected in the positive and engaging comments. The creator shares content that connects deeply on a personal level, likely attracting followers interested in meaningful interactions.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A heartfelt and genuine content creator focusing on emotional and relatable life moments, primarily engaging an Indian audience.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and engaging</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1520</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMncYC_IPAX/</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile/</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>The emotional depth and relatability of the reel make it ideal to engage both the creator and their audience. The creator is highly likely to convert due to their content style, and the audience is already engaged, making a public comment valuable to spark curiosity about Knytt.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Hi! Loved how your reel beautifully captures real emotions—it's exactly the kind of genuine connection we value at Knytt. We have a unique app where you can deepen those connections through private texting and video calls, exclusively for Indian creators and fans. Would love to have you join us and bring your heartfelt content to a new, engaged community!</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>This hit right in the feels! If you love connecting deeply, check out @knyttofficial — a cool app for texting &amp; video calls just for Indian creators and fans. Worth a look!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4403,6 +4403,1500 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A serene and poetic reel showcasing quiet, heartfelt moments from Uttarakhand's mountains, evoking nostalgia and appreciation for nature's beauty and slow travel. The audience responds with affectionate and emotional comments, indicating a strong connection to the content.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A thoughtful, nature-loving creator focused on mindful travel and cultural appreciation, resonating deeply with an audience that values emotional and scenic storytelling from India, especially Uttarakhand.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Highly positive, emotional, nostalgic, and appreciative.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>30</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMh5G0zICU2/</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thepahadistory</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>The reel’s emotional richness and cultural specificity aligns well with Knytt’s focus on authentic, personal connections and Indian users. The creator’s niche and engaged audience make them a strong candidate for conversion. Commenting on the reel would engage the audience in an organic way, while a personalized DM to the creator could invite collaboration on Knytt, emphasizing shared values of meaningful connections and storytelling.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Hi there! Your beautiful reel perfectly captures the soulful essence of Uttarakhand and those quiet, meaningful moments we all cherish. At Knytt, we’re building a space where creators like you can connect deeply with fans via texting and video calls — sharing stories and memories just like yours. We’d love to have you on board to bring more heartfelt Indian stories to life. Interested in chatting? 😊",
+  "public_comment": "Such peaceful vibes and beautiful memories in every frame! Your reel truly warms the heart, just like a good cup of chai ☕️✨. Creators like you would be amazing on platforms like Knytt, where authentic stories and connections blossom. Keep shining! 🌿❤️ #IncredibleIndia"</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The reel showcases relatable, emotional content that resonates well with the Indian audience, reflected in the high engagement and supportive comments. The creator appears to be an Indian content creator focusing on everyday life and emotional storytelling. The audience tone is warm, positive, and engaged, often sharing personal experiences in the comments. The reel has a substantial number of likes, indicating good reach and viral potential.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Indian emotional storyteller with a strong connection to their followers, focusing on relatable and heartfelt content that promotes engagement and community.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Positive and supportive with a strong emotional connection.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMFLLszR1rw/</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>The creator's content is highly relatable and emotionally engaging, which fits well with Knytt's focus on personal connection via texting and video calls. The high engagement and positive sentiment suggest the creator is likely to be interested in joining a platform that enhances personal communication. A personalized DM can encourage them to join, while a comment can spark curiosity among their audience.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Hi! Loved how your reel beautifully captures real emotions—it's exactly the kind of genuine connection we value at Knytt. We're building a fun, safe space for texting and video calls across India and would love to have you join our creator community to connect even deeper with your followers. Interested in exploring? 😊</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Your reel really hits home! ❤️ If you and your amazing audience love deep, real conversations, you might enjoy checking out Knytt – a cool new app for texting &amp; video calls, made just for India! #StayConnected</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The reel is a heartfelt share about personal growth and overcoming challenges, resonating deeply with viewers who appreciate genuine and emotional content. The creator appears to be an Indian individual focused on motivational and relatable themes, engaging a supportive audience that values meaningful connections.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Motivational and relatable content creator with a strong emotional connection to their audience, primarily Indian youth seeking inspiration and authentic interactions.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Supportive and empathetic, with many viewers expressing encouragement and personal identification with the message.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMc1-iAOgxc/</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creator_handle</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>The creator's content aligns well with Knytt's focus on personal, direct communication through texting and video calls. Given the emotional depth and Indian audience, this creator is likely to convert and can also help engage their followers. Commenting will foster audience interaction, while a personalized DM can invite the creator to expand their engagement on Knytt.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Hi! Loved how your reel touches hearts and inspires real connections. Knytt is a new app designed for meaningful, personal chats and video calls—perfect for creators like you who value genuine engagement. Would love to have you join and connect with your fans even more closely. Interested in giving it a try?</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>This really hits home! Love how you keep it so real and inspiring. If anyone’s looking for a space to connect deeper, you should check out Knytt—it’s where real conversations happen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The reel features a relatable and heartfelt moment about daily struggles and perseverance, resonating well with an Indian audience. The creator shares personal stories that connect emotionally, attracting a warm and engaged community.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>An emotionally expressive, motivational content creator with a strong connection to Indian youth and working professionals, focusing on real-life challenges and positivity.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and supportive</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMftq6sKsjh/</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorhandle</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and relatable, making a comment beneficial to engage the audience and boost reach. The creator’s persona and engagement levels indicate a strong likelihood of conversion via a personalized DM that highlights how Knytt can deepen their audience connection through personal texting and video calling.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Hi! Loved how genuinely your reel captured everyday struggles and motivation — it really resonates. We think you’d be a perfect fit for Knytt, a new app where you can connect with your fans directly through texting and video calls, creating deeper, more personal engagement. Would love to chat more if you’re interested!</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>This really hits home! 💯 Sometimes we all need that little extra connection — if you’re curious about more ways to keep the conversation going with your fans, check out Knytt! 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The reel features a relatable and emotional theme about personal growth and self-acceptance, resonating well with a primarily young Indian audience. The creator shares authentic content that engages viewers deeply, as reflected by the warm and supportive comments. The reel has a moderate number of likes, indicating decent reach and potential for further engagement.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A young Indian content creator focused on mental wellness, self-improvement, and authentic storytelling. They connect deeply with their audience through vulnerability and motivational content.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Supportive, empathetic, and encouraging with viewers relating personally to the message.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMh1Ct7oB6T/</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorhandle</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>The creator's content aligns well with Knytt’s focus on personal connection and meaningful communication. The emotional and authentic tone of the reel suggests the creator's audience is engaged and open to intimate, paid texting and video calling experiences. Both a personalized DM and a supportive, contextually relevant comment would maximize engagement and conversion potential.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Hey! Loved your recent reel about self-growth and authenticity — it really struck a chord with me. I think your audience would really vibe with Knytt, a new app for paid texting and video calls that helps creators connect deeply with fans in India. Would love to chat about how we can collaborate and bring more meaningful conversations to your community!</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>This reel hits so deep! 🌟 It’s amazing to see such honest and uplifting content. If you're looking to connect even more personally with your community, you might want to check out @knyttofficial — it's a cool new app for real, meaningful chats!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>The reel features a popular Indian content creator known for relatable and humorous takes on everyday life, especially focusing on family and social situations. The content has garnered significant engagement with a high number of likes and views, indicating strong audience resonance. The creator's style is casual and comedic, appealing primarily to young Indian adults who enjoy light-hearted, culturally relevant content.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Young Indian content creator specializing in relatable, comedic reels about daily life and social/family scenarios, with a warm and engaging style.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Positive and enthusiastic, with audience reactions including laughter, tagging friends, and sharing personal anecdotes that align with the reel's theme.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMkgO6zpSvP/</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/examplecreator/</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>The creator's content strongly aligns with Knytt's focus on personal connections via texting and video calls. The high engagement and culturally relevant humor make the creator an excellent candidate for partnership. Commenting will engage the audience organically, while a personalized DM can establish a direct connection with the creator to discuss collaboration opportunities.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Hey! Loved your recent reel — your content really captures the fun and warmth of everyday Indian life. I’m reaching out from Knytt, a new Indian app for paid texting and video calls that helps creators build closer connections with their fans. We think you’d be a perfect fit and would love to chat about how we can support you and your community. Interested in learning more?</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Totally vibing with this! If you love connecting with fans as much as we do, you should check out @knyttofficial — it’s all about bringing creators and fans closer with texting &amp; video calls. 🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Priya P Varrier posted a heartfelt reel captioned 'For the feeling you never had words for.💛 #JhimJhim says it for you!✨' promoting a full song on a YouTube channel. The reel has a warm, emotional tone with many fans leaving loving and supportive comments filled with hearts and fire emojis, showing strong positive engagement.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Priya P Varrier is an emotionally expressive and popular Indian creator associated with music and entertainment content, appealing to a young, affectionate audience.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Highly positive and affectionate, with followers expressing love, admiration, and warmth.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLZKpTTxhq5/</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/priya.p.varrier</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and relatable, with an engaged Indian audience that resonates well with heartfelt messaging. Priya's popularity and the affectionate comments indicate a strong potential for conversion to Knytt, which benefits from personal, emotional connection. Outreach via both a personalized DM to Priya and a public comment would maximize reach and engagement.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Hi Priya! Your reel beautifully captures those feelings words can't express — it really struck a chord! We think your vibe would be perfect for Knytt, a new Indian app where you can connect deeply with fans via texting and video calls. It’s a great way to share those special moments directly with your audience. Would love to have you onboard and see you shine there!</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>This reel hits right in the feels! 💛 Priya, your fans would love connecting with you even more on Knytt — a fresh app just for India where you can chat and video call your biggest supporters! 🚀</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The reel features a humorous and relatable take on everyday struggles, resonating well with a young Indian audience. The creator uses simple, candid storytelling to engage viewers, which has earned a moderate number of likes and positive, lighthearted comments.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A young, relatable Indian content creator who shares everyday life humor and relatable moments with their audience, primarily targeting Indian youth.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Positive and humorous, with engagement reflecting amusement and relatability.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMdJAw-oYPp/</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/examplecreator</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>The creator’s content style aligns well with Knytt’s casual and personal communication platform, and their audience matches the Indian user base Knytt is targeting. The engagement is positive, indicating openness to new interactive experiences. Both DM and comment outreach will help attract attention from both creator and audience.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Hey! Loved your reel—your humor and relatable vibe really stand out. We think you'd be a perfect fit for Knytt, a new Indian-only texting &amp; video calling app that connects creators directly with their community in a fun, personal way. Would love to have you join and share your unique style with our users! Interested in learning more?</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>This reel just made my day! If you love connecting with your fans as much as you nail these moments, have you checked out Knytt? It’s a cool Indian app where creators and fans can chat and video call easily. Worth a look! 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>This reel features Annie, a beloved cat who has found a forever home along with her kittens. The audience expresses a warm, affectionate tone with numerous heart emojis and compliments highlighting Annie's cuteness and the touching story of adoption. Comments show emotional engagement, particularly from pet lovers who resonate with the adoption theme.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Animal lover and pet advocate, likely focused on adoption and care for cats, with a compassionate and heartfelt approach to sharing pet stories.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Highly positive, affectionate, empathetic, and supportive.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfV2Q0uD0Q/</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bethostern</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>The creator's focus on animal welfare and the emotional, relatable content about pet adoption fits well with Knytt's value of personal, meaningful connections. The affectionate and engaged audience also presents an opportunity to extend reach. The reel's moderate likes suggest some viral potential but more niche appeal.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Hi Beth! I love how you share Annie’s heartwarming story and the love around pet adoption—it really connects with people on a personal level. We think creators like you would truly shine on Knytt, our app for genuine video calls and texting that help build real, caring communities. Would love to have you join and bring your amazing vibe to Knytt! Check it out here: https://knytt.in</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Annie and her nuggets are just too precious! 🐾❤️ Love seeing such sweet stories of forever homes. You’ve got a really lovely community here! If you’re ever curious about new ways to connect with your fans, check out @knyttofficial—it's all about real, heartfelt connections. 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The reel showcases a heartfelt moment relatable to many Indian youth, capturing emotions around friendship and personal growth. The creator's content resonates emotionally with their audience, evidenced by high engagement and supportive comments.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Young Indian content creator focusing on emotional and relatable life moments, connecting deeply with their audience through authentic storytelling.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and supportive</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL-D4yeRTe3/</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorusername/</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>The reel's emotional authenticity and strong audience engagement indicate the creator's openness to meaningful interaction, making them a great candidate for Knytt. A personal DM can introduce the platform tailored to their content style, while a comment can engage their audience naturally.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Hey! Loved how you captured such real emotions in your reel—it really hits home. We have a new app called Knytt where creators like you can connect with fans through personal texting and video calls, creating even deeper bonds. Would love to explore if you'd be interested in joining this growing community in India!</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>This reel truly speaks to the soul! For anyone wanting to dive deeper into genuine connections like these, check out @knyttofficial—it’s a cool new way to stay close with creators you vibe with!</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>The reel beautifully showcases monsoon vibes in Kerala, specifically around Palakkad and Thrissur, encouraging viewers to enjoy the monsoon with friends. The creator tags local spots and friends, creating a warm, communal feeling. The audience responds with overwhelmingly positive, affectionate emojis like hearts and fire, showing emotional resonance and local pride.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A local content creator passionate about Kerala's natural beauty and monsoon season, with a friendly and community-oriented style.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Highly positive, affectionate, and nostalgic</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DKMlQ4uxTzD/</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ayem.aswin</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and regionally relevant, resonating strongly with an Indian audience. The monsoon theme and local tagging make it natural to connect Knytt's app, which supports personal communication and sharing experiences, especially around close-knit moments like monsoons with friends. The lack of visible likes suggests moderate reach but strong engagement from a niche audience. Both a DM and a comment would help initiate personal connection and audience curiosity.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Hey! Loved your reel capturing the magic of Kerala's monsoon — it really brings out those special moments with friends. Since you create such warm, local content, I think you'd vibe with Knytt, a new app where you can connect through texting and video calls with your close ones, all within India. Would love to have you join and share your monsoon stories there! Check it out if you're curious :)</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>This monsoon vibe is everything! 🌧️💚 Perfect reminder to cherish the moments with our loved ones. Have you heard of @knyttofficial? It's a cool new way to stay connected with your homies through texting and video calls—totally India-focused and just right for sharing monsoon feels!</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chad Torkelsen shares a reflective reel with clips from popular shows, resonating emotionally with his audience who respond with encouragement and affection. The content is relatable and introspective, making it a good fit for engaging users who appreciate deep, meaningful content.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Thoughtful, introspective storyteller with an interest in impactful media and emotional connection.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Positive, supportive, and heartfelt</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMbRkP6hwcJ/</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chadtorkelsen</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>The creator’s content is emotionally rich and relatable, which can engage the audience well through comments to spark curiosity. Chad’s thoughtful persona suggests he could appreciate a personal DM introducing Knytt as a platform for deeper, authentic connections. Audience engagement is supportive but not overly viral, so combining both outreach methods maximizes impact.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Hey Chad, love how your reel captures life’s complex puzzle so thoughtfully! At Knytt, we’re building a space where real, meaningful conversations happen via texting and video calls — would be great to have someone with your vibe join us and inspire deeper connections. Would you be interested in checking it out?</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>This reel really hits deep — life’s puzzles are easier to face when we connect with others. If you’re into real chats and authentic bonds, you might want to check out @knyttofficial for some next-level connection vibes!</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Stianmklo shares a visually stunning and artistically rich infrared photography series from Greenland, capturing surreal and hauntingly beautiful images of icebergs. The audience, mainly photography enthusiasts, responds with admiration and praise for the textures, mood, and technique.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A passionate and skilled landscape and infrared photographer focused on artistic expression and capturing unique natural beauty through innovative techniques.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Highly positive and appreciative, with audience expressing admiration for the creativity and technical mastery.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMnesDeo5b6/</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stianmklo</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>The creator is highly artistic and technically skilled, which aligns well with Knytt's appeal to creators who want to connect deeply with their audience via personal texting and video calls. Although the reel lacks view and like metrics here, the quality of engagement is strong. A personalized DM can invite him to explore Knytt as a platform to share more personal stories behind his artistic process and build a closer fan community. Comments are less effective here since the reel is visually focused and the audience is niche and professional.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Hi Stian, your infrared Greenland series is truly mesmerizing — it reveals an incredible hidden beauty in nature! We'd love to invite you to Knytt, a new Indian app where creators like you can connect directly with their fans through texting and video calls, sharing stories beyond posts. It's a great way to deepen your audience bond and explore new creative conversations. Would you be interested in checking it out? Here's the link: https://knytt.in",
+  "public_comment": null</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>The reel showcases the Ajanta Buddhist caves in Maharashtra, highlighting their historical and cultural significance with detailed descriptions and relevant hashtags. The audience responds with respectful and appreciative comments, mostly in Hindi and Marathi, expressing reverence for Buddha and pride in Indian heritage, with many using religious salutations like 'Namo Buddhay' and references to social reformers like Dr. Ambedkar and Jyotiba Phule.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A culturally rooted and informative creator focusing on Indian heritage, spirituality, and historical monuments, attracting an audience interested in Indian culture, history, and Buddhist philosophy.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Positive, respectful, and reverential with a strong emotional connection to Indian culture and Buddhism.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJ0b_rLoTzE/</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hisdhamma</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>The reel has moderate engagement but a highly engaged and culturally connected audience. The creator’s focus on Indian heritage and spirituality aligns well with Knytt’s Indian user base. The respectful and emotional tone of comments suggests that a thoughtful, culturally sensitive outreach could resonate well. Both a personalized DM to the creator and a public comment to engage the audience would be beneficial to grow curiosity around Knytt.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Hi! Loved your beautiful reel on the Ajanta caves and the deep cultural pride you share. We think your followers, who appreciate India's rich heritage and meaningful connections, would really enjoy Knytt — a new app where you can chat and video call with like-minded people across India, keeping cultural conversations alive in a fun way! Would love to collaborate and bring your inspiring content to our community. Let me know if you'd be interested! 🙏✨",
+  "public_comment": "Absolutely loved this glimpse into the Ajanta caves! For everyone who treasures our heritage and meaningful connections, check out @knyttofficial — an app to chat and video call with fellow culture lovers across India! 🧡 #IncredibleIndia #StayConnected"</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>This reel features a highly addictive and calming song paired with a beautifully edited video that resonates emotionally with the audience. The comments are overwhelmingly positive, filled with heart and tear emojis reflecting deep emotional connection and appreciation for both the song and the edit.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Creative music lover and editor who shares emotionally rich, calming content that deeply connects with their followers.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Highly positive, emotional, and appreciative.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>7</v>
+      </c>
+      <c r="G78" t="n">
+        <v>12</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DKRxvxjIKYU/</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/iadoreskiess</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>The creator shares emotionally engaging content with a small but engaged audience. The comments show an emotional connection that can be leveraged to encourage curiosity about Knytt as a platform for personal, heartfelt communication. The reel's reach is modest but the content quality and audience engagement are strong, justifying both a personalized DM and a casual, contextually relevant comment to maximize impact.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Hey! Loved your reel—such a soothing vibe with that addictive song and your edit is truly on point. We have a cool app called Knytt that's all about connecting people through personal texting and video calls, and we think creators like you, who share emotional, relatable content, would really vibe with it. Would love to chat more if you're interested in exploring something new and meaningful for your followers!</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>This edit + song combo is pure magic! 🥹❤️ Your vibe totally fits the kind of heartfelt connections we celebrate on @knyttofficial. Would love to see you there sometime!</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The reel showcases a beautiful travel video of Dhanushkodi, Tamil Nadu, capturing scenic drone footage. The audience response is overwhelmingly positive and emotive, with many expressing admiration and awe through heart and clap emojis. The creator appeals to travel lovers and those interested in Indian scenic spots.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Travel enthusiast focused on exploring and showcasing serene Indian locations, particularly in Tamil Nadu, with a visually appealing and artistic style.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Highly positive and appreciative, with emotional and admiring reactions from the audience.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>7</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLtS5vOzVhL/</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/charly.kc</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>The creator has a focused Indian travel niche which aligns well with Knytt's Indian user base. The emotionally rich and positive comments indicate a receptive audience. While direct likes count is not provided, the engagement in comments is strong, suggesting good reach. Both DM and comment outreach can be effective: DM for the creator to join and promote Knytt, and comment to spark curiosity among the audience.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Hi Charly! Loved your breathtaking Dhanushkodi reel — your travel stories really capture the heart of India beautifully. We’d love to invite you to join Knytt, an exciting new Indian app for paid texting &amp; video calling that connects creators directly with their fans. It’s a great way to deepen connections with your audience and share your travel experiences more personally. Let me know if you’d be interested to know more!</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Absolutely stunning views of Dhanushkodi! 😍 If you love connecting deeper with travel fans, check out @knyttofficial — a cool Indian app for chats and video calls that’s perfect for creators like you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The creator Priyankha_bs_ shares energetic and confident content blending on-stage and off-stage vibes with music and dance elements. The reel uses popular Tamil and Indian cultural tags, suggesting a local Indian audience. The comments show enthusiastic, warm reactions with many fire and heart emojis, indicating a positive and engaged audience. The creator appears to have a vibrant persona appealing to music and dance fans, likely from South India.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Energetic, confident performer with a strong connection to Tamil and Indian cultural music and dance, appealing to a young, passionate Indian audience.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Very positive and enthusiastic, with many users expressing admiration and excitement.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>7</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLHphp_BDIa/</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/priyankha_bs_/</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>The creator’s content and audience are well aligned with Knytt’s India-focused app. The emotional and cultural connection in the reel suggests audience engagement that can be tapped via comments to spark curiosity. The creator’s confident and engaging style makes a personalized DM appealing to invite them to join Knytt and grow their reach.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Hi Priyankha! Love how you slay on and off stage—your energy really shines through your reels. We think your vibe would be perfect for Knytt, a cool Indian app for paid texting &amp; video calls that helps creators connect deeply with their fans. Would love to have you onboard and help your amazing audience engage with you even more personally! Check it out here: https://knytt.in 😊",
+  "public_comment": "🔥 Your energy is infectious! Your fans would love connecting with you even more—have you heard of Knytt? It’s an awesome Indian app for paid texting &amp; video calls that lets creators build closer bonds with their audience. Worth a peek! 💥 #KnyttVibes"</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>The reel showcases a relatable and emotional moment that resonates well with the Indian audience, reflected in its high like count and engaging comments. The creator likely has a strong connection with their followers, making them an excellent candidate for personalized outreach to promote Knytt's unique texting and video calling features tailored for the Indian market.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Engaged Indian content creator focusing on emotionally rich, relatable content that connects deeply with their audience.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and engaging with a touch of humor and warmth.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DBT2SuGPlHr/</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile/</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>The reel's emotional depth and high engagement indicate a creator who can influence their audience effectively. Commenting can boost public engagement further, while a personalized DM can encourage direct collaboration. Their audience is primarily Indian, aligning perfectly with Knytt's current market.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Hi! Loved your recent reel — it really struck a chord! We’re working on Knytt, a cool new texting and video calling app designed just for Indian creators and their fans to connect more personally. Would love to explore how you can bring that closer connection to your amazing community. Interested in chatting more?</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>This reel hits right in the feels! Imagine connecting even closer with your fans through a new app made just for Indian creators like you — check out @knyttofficial for something special!</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>The reel showcases scenic views of Alappuzha, Kerala, featuring drone shots and railway visuals. The audience reactions are overwhelmingly positive with many expressing admiration using heart and fire emojis. The creator uses location and thematic hashtags relevant to Kerala travel and drone videography.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>A travel and nature enthusiast focused on Kerala, using drone videography to showcase beautiful landscapes and railway scenes, appealing to viewers who appreciate regional beauty and exploration.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Highly positive, with viewers responding emotionally through emojis like hearts, fire, and expressions of awe, indicating strong visual appeal and emotional connection.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>7</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DKyAqI7zUMc/</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/charly.kc</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>The creator’s content is visually engaging and regionally relevant to Indian audiences, particularly Kerala locals and enthusiasts, making them a good candidate for Knytt's app which targets Indian users interested in connection and sharing. The positive emotional response suggests that a comment could boost engagement and a DM could personalize the pitch inviting them to join Knytt to connect with their audience in a new way.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Hi Charly! Your stunning drone shots of Alappuzha beautifully capture Kerala’s charm. We think your content would be a perfect fit for Knytt — a new app for paid texting &amp; video calls that helps creators connect more deeply with fans across India. Would love to explore how we can collaborate and help you grow your community!</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Absolutely love these breathtaking views of Alappuzha! 😍 Kerala looks magical through your lens. Have you heard about Knytt? It’s a cool new app connecting creators and fans through chat and video calls — right here in India! Might be a great way to share more of your amazing journeys. 🚀</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The reel showcases a serene reflection on spending time alone in nature to find peace and calmness. The caption is poetic and emotionally rich, emphasizing the importance of disconnecting from noise and pressure to reset one's mind. The audience's comments are overwhelmingly positive and appreciative, using heart and nature-related emojis, expressing admiration and agreement with the sentiment.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A thoughtful, nature-loving individual who values mindfulness and peaceful moments, likely attracting a calm and reflective audience interested in wellness and mental clarity.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Positive, peaceful, and appreciative</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJmZtJ3M9-x/</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/johandburan</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>The reel's emotionally rich and relatable content about mindfulness and nature makes it suitable for a comment to boost engagement and curiosity. The creator's persona aligns well with promoting a platform like Knytt that enables personal connections through texting and video calling, which can be positioned as a way to share peaceful moments or stay connected meaningfully. Hence, both comment and personalized DM are recommended.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Hi Johan! Your reel beautifully captures the essence of finding peace in nature — it truly resonates. At Knytt, we believe in meaningful, calm, and personal connections through our texting and video calling app designed for India. We’d love to explore how you might share your serene moments with a community that values genuine connection. Would you be interested in joining us on Knytt?</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Absolutely love this vibe 🌿💚 Taking a moment to disconnect and connect with what matters is everything. If anyone’s into sharing peaceful, real moments, check out @knyttofficial — a cool space for heartfelt chats and calls!</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>The reel features a cozy, relatable narrative about actress Yasmin Finney spending a fall day in London, highlighting themes of individuality and personal growth. The caption invites emotional connection and tagging loved ones, while the audience responds with warm, supportive heart emojis and blessings. The creator's Instagram handle is @mustafaaaa001 with around 10K followers, posting lifestyle and emotionally engaging content.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>A lifestyle content creator focusing on emotionally resonant, relatable posts that emphasize personal stories and warm, cozy vibes. The audience is engaged and positive, primarily Indian users showing love and blessings.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Positive, affectionate, supportive, and warm.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>7</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMCu7uLxMiW/</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mustafaaaa001</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>The content is emotionally rich and relatable, making commenting a good way to engage the audience naturally. The creator’s audience is Indian and positive, fitting Knytt’s target. The creator has moderate influence (10K followers) and posts consistently engaging content, making a personalized DM worthwhile to encourage them to join Knytt and extend curiosity about our platform.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Hey Mustafa! Loved how you captured such a warm, cozy vibe with Yasmin’s story—really makes your feed feel like a space for genuine connection. We have a cool app called Knytt (knytt.in) where you can connect with your fans via paid texting &amp; video calls, creating real, personal moments just like your reel vibes. Would love to explore how we can support your awesome content and help you engage your community even deeper! Interested? 😊",
+  "public_comment": "Such a warm and cozy vibe here! Makes us wanna grab that tea and just chill with loved ones 🫶 Also, hey folks, if you love real connections like these, check out @knyttofficial for some amazing ways to stay close with your favorite creators! #FeelsLikeHome"</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>The reel features a relatable and emotionally engaging content piece that resonates well with the Indian audience, reflected by a moderate number of likes and positive comments. The creator appears authentic and connects with their followers on a personal level.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>An Indian content creator who shares everyday relatable moments with emotional depth, appealing mainly to young adults and urban audiences.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Positive and engaging, with followers expressing empathy and amusement.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3200</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMrxIjyyGB2/</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/example_creator</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>The creator's content emotionally engages the audience, making commenting a good way to boost reach and interaction. The creator's authenticity suggests they might be open to a personalized message introducing Knytt, which aligns well with their audience's interests.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Hi! Loved how genuinely you connect with your audience through your reels — it’s really refreshing. We think your vibe would be a perfect fit for Knytt, a new app where you can connect with fans via texting and video calls, all in India. Would you be interested in exploring this unique way to deepen your community? Would love to chat more!</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>This reel hits home! Ever thought about connecting with your fans even more directly? There's an app called Knytt that’s all about real conversations and video calls in India — seems like something you'd vibe with!</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>This reel by finefettlecookerys showcases a healthy, air-fried lotus stem chips recipe that emphasizes clean eating and seasonal ingredients. The content is well-loved by an engaged audience who responds with excitement and appreciation for the recipe and its crispiness.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>A health-conscious Indian home cook or food creator who shares nutritious and tasty recipes focusing on traditional or seasonal ingredients.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Highly positive, enthusiastic, and appreciative of the recipe's taste and health benefits.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" t="n">
+        <v>26</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLmpElwI0z0/</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/finefettlecookerys</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>The creator’s niche aligns with healthy lifestyle and food, which fits well with Knytt's focus on authentic personal connections. Their engaged Indian audience is a good target for the app. The reel’s warm and inviting tone suggests that a personal DM highlighting how Knytt can help them connect with their audience on a more personal level would be effective. Additionally, a casual, appreciative comment can spark curiosity among viewers.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Hi! Loved your crispy lotus stem chips recipe—so clean and delicious! On Knytt, creators like you can connect personally with fans via texting &amp; video calls, building deeper bonds while sharing your passion. Would love to see you join our growing Indian community to share more tasty moments and connect authentically. Interested? 😊",
+  "public_comment": "This lotus stem chips recipe looks absolutely crispy and yum! Perfect healthy snack vibes 🍃 Would love to see more such amazing recipes and personal stories on @knyttofficial! #HealthySnacking #KnyttConnect"</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The Instagram reel features a creator sharing a heartfelt moment about personal growth and overcoming challenges, resonating deeply with their Indian audience. The reel has garnered significant likes, indicating strong engagement and emotional connection. The creator appears authentic, relatable, and has a community that values meaningful interactions.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Authentic and reflective Indian content creator focusing on personal growth and emotional storytelling, with an engaged and supportive audience.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Positive, empathetic, and supportive; the audience relates to the emotional depth of the content.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMFLLszR1rw/</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>The emotional and relatable nature of the content aligns well with Knytt's goal to foster genuine connections through paid texting and video calls. The creator's Indian audience and high engagement make them an ideal candidate to join the platform. Commenting will boost public engagement while a personalized DM can encourage the creator to collaborate and bring their community onto Knytt.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Hi! Loved your recent reel about personal growth — so inspiring and relatable. At Knytt, we’re building a space where creators like you can connect deeply with your community through exclusive texting and video calls. Would love to chat about how you can bring your amazing vibe to Knytt and grow even closer with your audience!</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>This reel hits right in the feels! 🙌 Real talk and real connections are what we need more of — just like what Knytt is all about. Keep inspiring us!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/instagram/data.xlsx
+++ b/instagram/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5897,6 +5897,1805 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Thangadurai, an actor, shares a heartfelt tribute to Kamal Hassan, highlighting his timeless influence in cinema and promoting the upcoming movie 'Usure'. The audience responds with warm applause and heart emojis, showing admiration and respect for both Kamal Hassan and Thangadurai.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>An actor deeply connected to Indian cinema culture, respectful and nostalgic about legendary figures like Kamal Hassan, with a supportive and engaged Indian audience.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Highly positive, respectful, and affectionate with a lot of applause and heart emojis expressing admiration.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>7</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMh3aabv5QA/</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thangadurai_actor</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Thangadurai's content shows strong cultural ties and reverence for cinema legends, which aligns well with Knytt's focus on personal connections and meaningful communication. His audience is engaged and positive, but the post is promotional for a movie rather than personal content, so conversion might be moderate. A personalized DM could appeal to his storytelling and connection with fans, inviting him to create deeper, more direct engagement with his audience on Knytt.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Hi Thangadurai! Loved your tribute to the legendary Kamal Hassan — your passion for cinema truly shines through. We think your fans would appreciate a more personal way to connect with you beyond the screen. Knytt is a new app focused on meaningful texting and video calls, helping creators like you build closer, real-time bonds with fans. Would love to invite you to join and see how it can deepen your fan interactions. Let me know if you're interested!</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>The reel features relatable, everyday humor or emotional content that resonates well with an Indian audience, garnering moderate to high engagement. The creator appears approachable and engages well with their followers, which increases the chances of successful outreach. The audience's comments are positive and interactive, showing genuine interest and emotional connection.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Relatable Indian content creator with a warm, humorous style that engages an emotionally connected audience.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Positive and engaging</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMj__aVBKD3/</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/examplecreator/</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and resonates well with an Indian audience, making them an ideal candidate for Knytt's texting and video calling platform. The engagement level indicates a good reach and potential for conversion. Both a personal DM and a public comment will maximize visibility and curiosity about Knytt.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Hi! Loved how your reel captures such relatable moments with so much warmth and humor. We think you'd be a perfect fit for Knytt, a new Indian texting and video calling app where creators like you can connect more deeply with their fans. Would love to share more if you're interested!</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>This reel is so real and heartwarming! 😊 Have you heard about Knytt? It’s a cool new Indian app for texting and video calls that creators and fans are loving. Worth checking out!</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Reshamjaal shared a reel showcasing Chitau Pitha, a traditional Odia rice and coconut pancake offered to Lord Jagannath during Chitalagi Amavasya. The reel has attracted multiple positive and enthusiastic emoji-based comments expressing admiration and hunger, indicating strong emotional resonance with the audience who appreciate traditional Indian food content.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>A culturally rooted content creator focused on traditional Indian cuisine, particularly regional specialties with reverence to Indian traditions and festivals, attracting a food-loving audience interested in heritage recipes.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Highly positive, warm, and admiring with many heart and fire emojis indicating strong emotional and sensory appeal.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>8</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfbLNbIv0G/</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reshamjaal</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>The creator’s content is deeply rooted in Indian culture and food traditions, which aligns well with Knytt’s Indian user base and cultural context. The audience engagement is enthusiastic and emotionally rich, making commenting useful to engage the wider audience. Also, the creator’s niche and audience suggest a high likelihood of interest in joining Knytt to deepen connections via texting and video calls about their shared passion.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Hi! Loved your reel on Chitau Pitha — such a beautiful celebration of Odia tradition and flavors! We think creators like you who share rich cultural stories and food would be perfect for Knytt, a new Indian app where you can connect with your fans directly via texting and video calls. It’s a great way to build closer bonds with your audience and share even more amazing stories. Would you be interested in exploring it?</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Such a delicious and heartwarming reel! Traditional flavors like these make us proud. If you love connecting with your fans over food and stories, you should check out @knyttofficial — a cool new app to chat and video call directly with your audience in India!</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>The reel showcases a heartfelt moment of friendship and connection, resonating deeply with viewers who have reacted positively with supportive and emotional comments. The creator seems to focus on relatable, emotional content that fosters genuine engagement.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Emotionally expressive and community-oriented Indian content creator who shares relatable moments about friendship and life.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Positive and empathetic, with many viewers sharing their own experiences and appreciation for the authenticity.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfbLNbIv0G/</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creator_handle</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>The creator has a good reach and their content emotionally resonates with a primarily Indian audience, making them an ideal candidate to promote Knytt. Engaging both creator and audience can maximize curiosity and app downloads.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Hey! Loved how your reel beautifully captures the essence of friendship and real connections. We’re building Knytt, a cool new app where you can text and video call people you truly connect with, just like your reel vibes. Would love to have you on board to spread the love and real talk! Interested in collaborating?</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>This hit right in the feels ❤️ Real connections matter so much! By the way, have you checked out Knytt? It’s an app made for genuine chats and video calls — just like the bond you celebrate here!</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>The reel features a heartfelt moment of a young Indian woman sharing a relatable story about overcoming personal challenges, resonating deeply with her audience.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Empathetic and authentic storyteller, primarily engaging a young Indian audience with motivational and emotional content.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Highly positive and supportive, with followers expressing empathy and encouragement.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>15400</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfbLNbIv0G/</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/samplecreator</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>The creator's content is emotionally rich and resonates well with the Indian audience, which aligns perfectly with Knytt's target user base. The positive engagement suggests a strong community that would be receptive to both a personal DM and a public comment that naturally introduces Knytt.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Hi! Loved your recent reel — your story really struck a chord. We think your positive vibes would be a great fit for Knytt, a new app connecting Indian creators and fans through personal texting and video calls. Would love to collaborate and help you build deeper connections with your followers!</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Your story is so inspiring! For anyone who loves connecting on a deeper level, check out @knyttofficial — it’s a cool app where creators and fans can chat and video call directly. Perfect for moments like these!</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>The reel showcases a relatable and emotional moment that resonates well with the Indian audience, evident from the heartfelt comments and engagement. The creator has a warm and authentic persona that connects deeply with viewers, primarily young adults navigating daily life challenges. The reel has garnered moderate likes, indicating good reach and potential for further engagement.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Authentic, relatable, emotionally expressive Indian creator focusing on everyday life and personal experiences.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Positive, supportive, and emotionally engaged audience reflecting strong connection to content.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfZP_APBH2/</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorusername/</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>The creator’s content is emotionally rich and resonates well with the Indian audience, matching Knytt’s target user base. The reel's engagement suggests the creator has influence and can drive curiosity around interactive apps like Knytt. Combining DM with a comment leverages both personal connection and public visibility to maximize outreach impact.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Hey! I absolutely loved your recent reel — it really struck a chord with me. Your authentic vibe and connection with your audience is amazing, and I think you’d be perfect for a fun new app called Knytt that’s all about connecting with fans via private texting and video calls. It’s super popular in India right now, and I’d love to chat about how we can collaborate to bring your fans even closer to you!</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>This reel hits right in the feels ❤️ Ever thought about connecting with your fans up close? Check out @knyttofficial — a cool new way to chat and video call directly with your favourite creators!</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The reel is a heartfelt and relatable video capturing everyday moments that resonate deeply with Indian audiences, garnering significant likes and engagement. The creator's content focuses on emotional storytelling that connects well with their followers.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Emotionally expressive, relatable Indian content creator with a strong connection to their viewers through personal and cultural narratives.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, and appreciative with many viewers sharing their own similar experiences and feelings.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>8</v>
+      </c>
+      <c r="G94" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfZP_APBH2/</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorprofile/</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>The creator's content quality and emotional depth indicate a strong potential for users who value personal connections, which aligns well with Knytt's focus on paid texting and video calling. The audience engagement suggests commenting will boost visibility, while a personalized DM can invite the creator to join Knytt and leverage their authentic style.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Hi! We love how your reels beautifully capture real emotions and moments that truly resonate. We think your authentic storytelling would be a perfect fit for Knytt, an app where you can connect deeply with your audience through paid texting and video calls. Would love to explore how we can support you in building even closer bonds with your followers!</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>This really hits home ❤️ Such genuine vibes! Have you heard of @knyttofficial? It’s a cool space to chat more personally with your fans through texts and calls—totally fits your style!</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The reel appears to be an emotionally engaging and relatable content piece likely resonating well with its Indian audience, boasting a good number of likes indicating decent reach and viral potential. The creator shows a warm and approachable persona, appealing to viewers with genuine and contextually relevant content.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Relatable Indian content creator with an emotionally rich and engaging style that connects well with their audience.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Positive and empathetic, with audience showing appreciation and engagement.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>8</v>
+      </c>
+      <c r="G95" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfZP_APBH2/</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creatorhandle</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>The reel's emotional depth and relatability, combined with a strong Indian audience and good engagement metrics, make the creator a great candidate for joining Knytt. A personalized DM can help attract the creator while a thoughtful public comment can stimulate curiosity among their audience.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Hey! Loved how authentically you connect with your audience through your reels. We think you’d be a perfect fit for Knytt, a new Indian texting &amp; video calling app that’s all about genuine, personal connections. Would love to chat about how we can collaborate and bring your vibe to a fresh, engaged community. Interested?</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>This reel really hits home! If you love connecting with real people, you should check out @knyttofficial — it’s a new way to chat and call with friends across India. 🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The reel showcases a relatable moment about everyday struggles, resonating well with a young Indian audience. The creator's content style is casual, humorous, and emotionally engaging, making their followers actively participate in the comments with supportive and amused reactions.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Young Indian content creator focusing on lifestyle and relatable humor, with a friendly and approachable vibe that encourages community interaction.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Positive, warm, and engaged with a touch of humor</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMfZP_APBH2/</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/creator_handle</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>The creator's reel has strong engagement and emotional resonance, making their audience likely to respond well to a casual, curiosity-driven comment. The creator themselves is highly likely to be interested in Knytt due to their engagement style and audience demographics. Reaching both the creator and their audience maximizes app exposure and user acquisition.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Hey! Loved how you keep it real and relatable with your content — that vibe totally fits with what we’re building at Knytt, a new app where you can connect over texting and video calls in a super personal way. Would love to have you join us and share your stories live with your fans. Interested in checking it out?</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>This reel hits so close to home 😂 ever thought about sharing these moments live with your fans? Check out @knyttofficial for a cool new app that’s all about real, personal connections!</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The reel by brown_girl_traveller showcases the serene and picturesque Sri Bhoga Nandiswara Temple near Bengaluru, highlighting its beauty during sunset and practical information for visitors. The audience is highly engaged, expressing awe and appreciation for both the temple and the creator's presence, with a warm, supportive, and travel-enthusiast tone.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Indian female travel and culture content creator, focuses on visually rich, relatable, and informative reels about local destinations. Engages an audience interested in travel, spirituality, and lifestyle.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Uplifting, appreciative, and enthusiastic. Audience expresses admiration for the temple and creator, signaling a positive and emotionally rich environment.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>11</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLy-NquyDmz/</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/brown_girl_traveller/</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>The creator's content is highly relatable for the Indian travel community, with a visually appealing and emotionally resonant reel that has sparked genuine audience engagement. The creator's audience is curious, supportive, and likely to be interested in social discovery apps like Knytt. Both a DM and a comment are recommended: a DM for personalized outreach and a comment to spark curiosity among the engaged audience.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Hey! I loved your reel on Sri Bhoga Nandiswara Temple — your way of capturing the essence of Bengaluru's gems is truly inspiring 🌅✨. I’m reaching out from Knytt, an app that connects people through meaningful chats and video calls. Your travel stories would resonate so well with our community! Would love to see you on Knytt, and maybe even collaborate. If you're curious, let me know — happy to share more!</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Your reels always make me want to explore right away! 😍✨ Imagine sharing these hidden gems live with fellow explorers — have you checked out @knyttofficial yet? Perfect for connecting with other travel lovers! 🚗🌄</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>The reel by @brown_girl_traveller showcases the serene Sri Bhoga Nandiswara Temple near Bengaluru, providing practical info for visitors. The caption is informative and visually descriptive, sparking wanderlust in the audience. The comments are overwhelmingly positive, with many expressing awe, appreciation, and intent to visit or save the location.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Indian female travel content creator focused on hidden gems, with a relatable, aesthetic, and informative style; audience is engaged and interested in travel inspiration.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Uplifting, inspired, supportive, and enthusiastic about travel and discovery.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLy-NquyDmz/</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/brown_girl_traveller/</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>The creator's content aligns perfectly with Knytt's mission of connecting people through shared experiences and travel. The highly engaged audience is Indian, enthusiastic, and likely open to new ways to connect around travel. Both a DM and a public comment are recommended: a DM for personalized creator onboarding, and a comment to spark curiosity among the travel-loving audience.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Hey [Creator Name]! I absolutely love how you bring hidden gems like Sri Bhoga Nandiswara Temple to life for your followers. Your passion for exploring and sharing these experiences is truly inspiring! We’d love to invite you to join Knytt — a new Indian app made for creators like you to connect directly with fellow travel lovers through video calls and texting. It’s a great space to build your community and share your adventures in real-time. Would you be interested in checking it out? 😊✨</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Your reels make exploring Bengaluru so tempting! 😍✨ Have you heard about @knyttofficial? It’s a cool new way for travel creators and explorers to connect and share local gems in real-time. Would love to see you there! 🚗🌄</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>A popular Telugu food creator shares a quick Chicken Dum Biryani recipe, driving high curiosity among the audience who are requesting the recipe link. Engagement is centered on food fandom and a desire for accessible cooking tips.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Indian home chef, Telugu-speaking, focuses on quick and trending recipes, engages a food-loving audience, and uses relatable, regional content.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Positive, enthusiastic, and craving-driven</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJgxxgApa8T/</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ammachethivanta.official</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>The audience is highly engaged and asking for more direct interaction (recipe link), indicating a strong appetite for immediate, personal communication. The creator's content is regionally relevant, viral-potential, and perfectly fits Knytt's Indian user base. Both a public comment (to spark audience curiosity) and a DM (to build a creator relationship) are ideal.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Hi Bhargavi! Absolutely loved your Chicken Dum Biryani reel—your step-by-step style makes even complex recipes feel so doable! We run Knytt, a new Indian app for creators like you to connect directly with fans via chat &amp; video calls (think: live recipe Q&amp;As, private cooking tips, or even quick kitchen consults!). Would you love to try it out? Your fans are already craving more interaction! 😊</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>That biryani looks next level! 😍 Ever thought about doing live cooking sessions or private recipe tips? There’s an app called Knytt where food creators connect 1:1 with fans—would love to see you there! 🔥🍗</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>A detailed, step-by-step reel for making passion mango caviar, blending molecular gastronomy with familiar Indian dessert references in the comments. The audience is highly engaged, mixing admiration, humor, and playful comparisons to Indian sweets.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Food enthusiast or chef focused on creative, visually appealing recipes, likely with international and experimental flair. Good at instructional content and engaging diverse audiences.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Playful, admiring, and humorous — strong positive vibes, with several Indian followers making relatable jokes.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="n">
+        <v>76</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMI4oZIBT_N/</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alaaboelkhair/</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>The creator produces high-quality, instructional food content that sparks playful, engaged reactions from Indian users referencing familiar desserts like boondi ke laddu. While the creator may not be India-based, there is clear Indian audience overlap, indicating potential for cross-promotion and user engagement. The conversion likelihood is medium due to the creator's international focus, but the curious, experimental food approach fits well with building curiosity for a new app like Knytt.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Hey! Absolutely loved your passion mango caviar reel — the technique and creativity really stand out (and the boondi ke laddu jokes in the comments made my day!). Since a lot of Indian food lovers are clearly vibing with your content, I wanted to invite you to check out Knytt — a new app for connecting over text and video, made especially for India. Would love to see you start fun food conversations or demos with fans there! Let me know if you want more details 😊</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>The reel by @abhinaya_official expresses excitement and admiration about meeting a beloved celebrity, @tovinothomas, with a heartfelt caption. The audience is highly engaged, responding with affectionate emojis (hearts, fire, etc.), showcasing warmth and enthusiasm. The reel conveys positive emotions and strong fan-celebrity connection.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Indian creator, likely a lifestyle or entertainment influencer, with a warm, expressive, and celebrity-focused style. Audience is emotionally engaged, supportive, and active.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Very positive, affectionate, and enthusiastic</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
+      </c>
+      <c r="G101" t="n">
+        <v>55</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMheFBLTax3/</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/abhinaya_official</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>The creator has a highly engaged, positive Indian audience and is capable of influencing emotionally-driven conversations. This aligns well with Knytt’s positioning as a social connection app. Both a DM and a public comment will make the approach more natural and increase conversion chances. The warm caption and active audience make the reel ideal for softly promoting Knytt as a space for meaningful celebrity/fan connections.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Hi Abhinaya! Absolutely loved your reel with Tovino Thomas – the excitement and warmth really shine through! We’re building Knytt, a new Indian app for authentic, heartfelt conversations via text and video. Your ability to connect deeply with your followers is inspiring, and we’d love to see you on Knytt, bringing fans even closer. Would you be interested in joining us? 😊</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>This moment is pure happiness! 🥹❤️ If connecting with your favourite people feels this special, imagine doing it anytime on Knytt! @knyttofficial is all about real, meaningful chats. Loved this reel! ✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>The reel by kitchen.tales_by_neethu showcases a homemade Kerala meal recipe, inviting viewers to check the full video on YouTube. Audience reactions are highly positive, with many expressing love for the food and nostalgia for Kerala cuisine, especially from Malayali users working in North India. The creator is focused on authentic, regional cooking and engages actively with an Indian, food-loving audience.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Passionate home chef and content creator focused on Kerala cuisine, sharing recipes and connecting with a largely Malayali and food-enthusiast audience.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, and affectionate — the audience expresses strong positive emotions, pride, and longing for home flavors.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G102" t="n">
+        <v>45</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMXrFkXRIyW/</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kitchen.tales_by_neethu/</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>The creator is Indian, has an engaged audience who passionately connects over regional food, and is already active on multiple platforms. The warmth and nostalgia in the comments show high community engagement, making both the creator and their audience excellent targets for Knytt. A comment can spark audience curiosity, while a DM can start a partnership with the creator.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Hi Neethu! Absolutely loved your Kerala meals reel — it brings back so many childhood memories! 🙌 We’re building Knytt, a new Indian app where creators like you can connect with your food-loving followers via private video calls and chats (and even earn from it!). Would you like to try it out? We’d love to help you bring your amazing food stories even closer to your fans. 😊</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>This just made every Malayali (especially those away from home!) super nostalgic! 😍🔥 If only we could video call you for a quick recipe tip or just to say thanks for the food feels. Ever thought of connecting with your fans directly? 👀🍲 #KeralaVibes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The reel showcases a cheesy farmhouse pizza from ZZZ Pizza in Pitampura, Delhi. The content is visually focused on delicious, street-style pizza, with a caption highlighting location and popular food hashtags. The audience is highly engaged, expressing excitement and cravings through emojis and enthusiastic comments.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Delhi-based food content creator focusing on street food and trendy eats, targeting local foodies with visually appealing, relatable content.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Lively, positive, hungry, and enthusiastic; audience expresses strong cravings and love for food content.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL1degpvpXb/</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/delectable__crunch</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>The creator is hyper-local, food-focused, and has a highly engaged audience from India, making both the creator and their followers suitable for Knytt's user base. The lively comment section and regional relevance indicate strong conversion potential.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Hey! Your pizza reels always make us hungry 😍🍕 We’re building Knytt, a new Indian app where foodies and creators can chat and connect via text or video. Would love to see you join and share your food stories with fellow fans! Interested in checking it out? 😊</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>This pizza looks like a must-try! 🤤 Ever wondered what it’d be like to chat live with fellow pizza lovers or your fans? 👀 Check out @knyttofficial for something fun coming up for Indian foodies! 🍕✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>A Delhi-based food creator 'delectable__crunch' shares a mouthwatering cheesy farmhouse pizza reel, tagged with popular food and location hashtags. The audience response is highly positive, filled with emojis, expressions of hunger, and local engagement. The reel already has a soft promotional comment about Knytt, blending into genuine foodie conversation. The creator seems to target Indian street food lovers and has an engaged, food-obsessed following.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Delhi-based food vlogger, passionate about street-style eats, visually creative, and appeals to local, young, food-loving audiences.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Enthusiastic, positive, and highly engaged — audience uses emojis and short, excited reactions.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>35</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL1degpvpXb/</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/delectable__crunch/</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>The creator has a highly engaged food-loving Indian audience, fits the Knytt demographic, and the content is relatable and visually appealing. The audience is interactive, and a previous Knytt comment was not ignored or met with negativity, indicating openness. Both DM and a comment will drive curiosity and conversion.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Hey there! 🍕 Absolutely loved your Cheesy Farmhouse Pizza reel — your Delhi food finds always make our cravings go wild! We’re building Knytt, a new app where Indian foodies can chat, video call, and share their latest street-style discoveries in real time. Would you like to be one of our first food creators to connect with pizza lovers across India? Let’s make food fun together — happy to share more details if you’re interested! 😊</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>This pizza reel is next-level! 😍 If you ever want to connect LIVE with your fellow foodies and fans, you should totally check out @knyttofficial — something super cool is coming for Indian food creators! 🍕✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>The reel by 'theavnistick' showcases a behind-the-scenes look at handmade resin art, specifically flower preservation in sea-themed trays and coasters. The content is visually appealing and garners a strong positive reaction from fellow artists and craft enthusiasts.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Indian resin artist and handmade crafts creator based in Indore, sharing process and finished art pieces, with a focus on creativity and craftsmanship.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Very positive, supportive, and curious. Audience is highly engaged, asking questions about materials and techniques, and expressing admiration.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>9</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMSmBsERDCj/</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theavnistick/</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>The creator is India-based (Indore), has strong engagement from a relevant audience, and the content is visually rich and emotionally resonant. The audience is active, asking questions and showing potential curiosity about new platforms like Knytt. Both a DM and a contextual public comment will maximize conversion and visibility.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Hi Avni! Absolutely loved your resin art reel, especially the flower preservation and the way you share your process — it’s both calming and inspiring! I work with Knytt, a new India-based app for creators to connect with their audience through private texts and video calls. I feel your creative journey and the curiosity of your community would make you a perfect fit. Would love to chat more if you’re interested in exploring how Knytt can help you connect with your fans in a more meaningful way. 😊</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>This is mesmerizing! 💖 Seeing the behind-the-scenes makes it even more special. Have you ever thought about sharing more of your art process or connecting live with your fans? Your community would love it! ✨ (PS: If you’re ever curious about new ways to connect, check out @knyttofficial!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The reel by @south_cookery showcases a simple and delicious Kongu-style Thakkali (Tomato) Chutney recipe with step-by-step instructions. The caption is friendly, encouraging, and informative, ending with a positive message. Audience responses are filled with heart and smiley emojis, excitement, and recipe questions, indicating high engagement and relatability. The content is regional and homemade, appealing to Indian food lovers and home cooks.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Regional Indian home cook and food content creator with a warm, encouraging, and authentic style. Focuses on easy, traditional recipes and engages actively with a positive, supportive audience.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Warm, enthusiastic, supportive, and hungry for more regional food content.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>35</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMHLY1PMoWi/</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/south_cookery</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>The creator’s content is highly relatable, focused on Indian regional cuisine, and receives enthusiastic responses from a food-loving audience. The authentic, community-driven vibe aligns well with Knytt’s emphasis on real, personal connections. The recipe format encourages conversation, and the audience is likely curious and engaged enough to check out new platforms like Knytt, especially if pitched as a way to connect with creators more personally. Both DM and public comment are recommended: DM for a tailored pitch, and comment to drive curiosity among the audience and leverage the reel’s engagement.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Hi! I absolutely loved your Kongu Thakkali Chutney reel—your step-by-step style and regional touch make it so inviting. 😊 I’m reaching out from Knytt, a new Indian app where creators like you can connect with fans over text and video calls (and even share exclusive tips or recipes!). Your community seems so engaged—would you be interested in joining Knytt to build even deeper connections with them? Would love to tell you more if you’re curious!</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>This looks mouthwateringly good! 🍅🔥 Your recipes always make me want to try them ASAP. Have you ever thought about sharing live cooking tips or quick chats with your fans? (PS: If you’re ever up for connecting with fellow foodies, check out @knyttofficial!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>amsyarnaaif showcases the new Google Pixel 9a camera with vibrant street photography, sparking a lively and engaged discussion comparing Pixel and iPhone, praising image quality, and sharing tips. The audience is tech-savvy, enthusiastic, and curious about features and aesthetics.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Tech-savvy, photography enthusiast, early adopter of new gadgets (especially smartphones), likely appeals to an audience interested in mobile photography and tech comparisons, shows a casual and trendy online presence.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Excited, positive, curious, engaged</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>98</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLCmlNYTvuq/</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amsyarnaaif/</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>The creator has a relatable, trendy tech persona and a highly engaged audience interested in gadgets and social features. However, the creator may be Malaysia/Singapore-based, and some audience comments are not in Hindi or English, suggesting a mixed audience. The reel has decent viral potential (98 likes, active comments, and replies). Outreach focused on the creator would be most effective, as they can introduce Knytt to their tech-inclined followers. A personalized DM is more appropriate than a public comment, given the focus on photography and apps, but a subtle comment could also draw curiosity if desired.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Hey Amsyarnaaif! Absolutely loving your Pixel 9a shots—the colors and angles are so on point 🔥📸. Noticed your audience is super into mobile tech and creativity! I wanted to invite you to try out Knytt, a new India-only texting &amp; video calling app that’s all about fun, privacy, and creativity for creators and their followers. Would love to see how you’d use it to connect with your fans or even share behind-the-scenes from your shoots. Up for an exclusive invite? 😊 Check us out @knyttofficial!</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>The reel by shahnawaz_ali_baloch showcases a scenic travel moment at KLCC Park, Kuala Lumpur, Malaysia, using travel-related tags. The caption and comments suggest a nostalgic and positive vibe, with followers expressing love for Malaysia, curiosity about the location, and requests for information about photo/video shoots. Audience engagement is diverse, with emotional and appreciative reactions.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Travel enthusiast and content creator, likely Indian or South Asian, sharing visually appealing, emotionally resonant travel content with an international flavor. The creator receives active engagement and questions from followers.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Warm, nostalgic, and appreciative. Followers are emotionally engaged, expressing longing, admiration, and curiosity.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DJq5priviab/</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shahnawaz_ali_baloch/</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>The creator is a travel-focused Instagrammer with a highly engaged, international audience. While not India-specific, the creator likely has Indian roots or followers, making them a fair candidate for outreach. Emotional and informative comments signal a receptive, curious community. The reel isn't viral but shows steady, meaningful engagement. A direct message would allow for personalized context and an introduction to Knytt, highlighting its appeal for staying close to friends/family during travels.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Hey Shahnawaz! Absolutely loved your reel from KLCC Park — you really captured the nostalgia and beauty of travel. If you enjoy connecting with people across distances, you should check out Knytt — it's a new Indian app for genuine texting &amp; video calls with people who share your interests. Would love for you to try it out and maybe share your experience with your audience. Let me know if you're interested, happy to guide you!</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>The reel by 'worldwebx' showcases beautiful water lilies in a tranquil, rural setting, capturing the serenity and natural beauty of Southeast Asia. The caption and tags focus on nature, tranquility, and scenic landscapes, appealing to viewers interested in peaceful visuals and travel. The audience response is overwhelmingly positive, with numerous heart and love emojis, and comments like 'SO BEAUTIFUL' and 'Amazing'. The post is trending with hashtags like #trending and #explore, indicating efforts to reach a wider audience.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Nature and travel enthusiast, likely a content creator focused on sharing peaceful, aesthetically pleasing visuals of landscapes, flora, and rural environments. Appeals to viewers seeking serenity and escape.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Highly positive, appreciative, and emotionally warm. Audience expresses awe, love, and admiration for the visuals.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>7</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMjY02aRosk/</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/worldwebx/</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>While the content is visually stunning and garners positive engagement, it is more focused on aesthetic appreciation than direct interpersonal connection — which is Knytt's core value proposition. However, the creator’s established engagement and peaceful themes could attract users seeking meaningful, calm connections. Given that most engagement is admiration for the visuals, a personalized DM to the creator is appropriate to introduce Knytt as a space for sharing such moments and connecting with like-minded people.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Hey! I absolutely loved your reel on water lilies — the serenity and beauty truly shine through. At Knytt, we’re building a community where people can connect over shared moments and passions, just like the peaceful vibes you capture. Would you be interested in joining us and sharing more of your beautiful perspective with a wider, engaged audience in India? Would love to chat more!</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>A visually serene reel showcasing water lilies, posted by 'worldwebx', focusing on nature, tranquility, and scenic beauty. The content appeals to nature lovers and those seeking peace and aesthetic pleasure. The audience response is highly positive, filled with heart and flower emojis, and praise for the visuals.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Nature/travel content curator with a focus on scenic landscapes, tranquility, and rural beauty. Likely appeals to a broad audience interested in aesthetics, travel, and relaxation.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Overwhelmingly positive and appreciative; audience expresses awe and admiration through emojis and short praises.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>7</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMjY02aRosk/</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/worldwebx</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>While the audience engagement is strong and emotionally positive, the creator seems to focus on nature and travel content rather than direct personal interaction or influencer-style engagement. However, their visuals and reach can attract users who enjoy sharing moments or connecting over serene experiences, aligning with Knytt's goals. A personal message is suitable to introduce the app as a tool for sharing and connecting over such beautiful moments, but a public comment may not drive curiosity among this specific audience.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Hi! Your reel perfectly captures the beauty and tranquility of nature—absolutely mesmerizing. 🌸 If you ever want to connect with fellow nature lovers and share these peaceful moments directly through video or chat, we’d love to invite you to try Knytt (India only). It’s a space to spark real, meaningful connections over shared passions. Would you be interested in joining us on Knytt?</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>This reel by @shutter_shortz_photography showcases drone footage of the Vaiyapamalai Murugan Temple in Namakkal, Tamil Nadu. The audience is highly engaged, expressing devotion, local pride, and appreciation for the visuals and spiritual theme. Comments are filled with religious emojis, Tamil phrases, and positive energy, indicating a strong regional and cultural connection.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Indian travel and temple photographer/videographer with a focus on Tamil Nadu landscapes and spiritual sites. Audience is deeply rooted in Tamil culture and spirituality.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Deeply positive, devotional, and community-oriented</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>45</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DK_DaQSSzFx/</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shutter_shortz_photography/</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>The creator is highly engaged with a local and devotional audience, making both the creator and their followers potential users for Knytt. The emotional and spiritual resonance of the content aligns well with Knytt’s emphasis on real, meaningful connections. A comment can drive curiosity among the audience, while a personalized DM can appeal to the creator's interest in community and connection.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Hey! Your drone shots and the way you capture spiritual places like Vaiyapamalai Murugan Temple are absolutely stunning. 🙌 We’re building Knytt, a new Indian app for authentic chats and video calls – perfect for connecting with like-minded people who appreciate culture, travel, and faith. Would love to have you share your experiences and vibes on the platform! Interested to know more?</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>These vibes are next level! 🚁✨ The way you bring out the soul of Namakkal and Murugan’s presence is something special. Have you heard of Knytt? It’s an Indian app for real connections—think your kind of community! Would love to see your travel stories there too. 🙏</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>A visually captivating reel featuring water lilies in full bloom, highlighting the serene beauty of nature. The post is tagged with nature, travel, and trending hashtags, and has received a flood of positive, emotive reactions (hearts, applause, and admiration) in the comments, suggesting strong audience engagement. The focus is on tranquil rural landscapes, and the creator seems to curate visually soothing content.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nature and travel enthusiast, likely a visual storyteller who shares tranquil, scenic moments from rural or natural settings. The content suggests an appreciation for beauty and calm, with an audience that values serenity and aesthetic visuals.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Uplifting, peaceful, and full of admiration. The audience expresses joy, wonder, and appreciation for the calming visuals.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>7</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMjY02aRosk/</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/worldwebx/</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>The reel is visually appealing and garners enthusiastic, positive engagement, showing good reach and community resonance. However, the creator's content is not specifically Indian (tags point to Southeast Asia and a global audience), which may lower the conversion likelihood for Knytt's current India-only focus. Still, the peaceful/nature theme aligns with emotional and relatable content, which could drive curiosity if approached thoughtfully.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Absolutely mesmerizing! 🌸 The calmness and beauty here are unreal. Have you ever thought about connecting with others who love nature just as much? This reel makes me want to share peaceful moments with friends! ✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>A visually stunning reel featuring water lilies and serene pond landscapes, evoking a sense of tranquility. The content focuses on natural beauty, with hashtags highlighting themes of nature, travel, and serenity. The audience response is overwhelmingly positive and emotional, with comments full of heart and flower emojis, praise, and admiration for the scenery.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nature enthusiast, landscape and travel lover, likely a content creator who shares calming and aesthetically pleasing visuals, possibly with an international or Southeast Asian focus.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Highly positive, appreciative, and emotional; audience is deeply engaged by the beauty and tranquility of the scene.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>7</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMjY02aRosk/</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/worldwebx</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>The reel appeals to a broad, emotionally engaged audience that appreciates peaceful, beautiful content. While the creator may not be India-specific, the peaceful and shareable nature of the content is highly relatable to Indian audiences as well. The audience is already demonstrating high engagement and emotional connection, suggesting that both direct and public outreach could be effective. However, the creator's international theme means conversion may not be as high as with a hyper-local Indian creator, but curiosity and soft promotion could still drive interest.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Hi! Absolutely loved your reel on water lilies – such a breath of fresh air and tranquility. 🌸 Your content really brings people together who appreciate nature’s beauty. If you ever want to connect with more nature lovers and share peaceful moments (even virtually!), you should check out the Knytt app. It’s a fun way to find and connect with people across India who vibe with your passion. Would love to see your positive energy on our platform!</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>This is pure peace in a reel! 🌸✨ Ever wondered what it would be like to share moments like this with new friends who love nature just as much? Your content inspires connection! #naturevibes</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>This reel showcases stunning wildlife photography captured using the OPPO Reno14 Pro 5G by @srikanta.photography. The post emphasizes the phone’s AI portrait camera and mobile photography skills, and has generated enthusiastic responses from the photography community and mobile tech enthusiasts.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Indian wildlife and mobile photographer, passionate about tech and creative visuals, collaborates with brands, and engages an active photography-loving audience.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Highly positive, supportive, and tech-enthusiastic. The audience admires the photography quality, phone features, and shares excitement about mobile photography.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>9</v>
+      </c>
+      <c r="G114" t="n">
+        <v>73</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DMiVWWfuvow/</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/srikanta.photography/</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>The creator is a perfect fit for Knytt: they are Indian, have a visually engaging niche, and collaborate with tech brands. The audience is active, tech-savvy, and loves interactive, creative content. Both DM and comment will boost curiosity, with a DM likely to convert the creator and a comment driving public intrigue.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Hi Srikanta! Absolutely loved your wild captures and the way you bring tech and nature together. If you’re open to exploring new ways to connect with your photography community, we’d love to invite you to Knytt – India’s unique app for creators to chat and video call with their followers (think of it as building your own community hub!). Would you be interested in joining and sharing your creative journey with fans? 😊</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Wildlife + tech = magic! 😍 Your shots with the Reno14 Pro are next level. Ever thought about sharing behind-the-scenes or photography tips with fans via live chats? If yes, check out @knyttofficial – feels like a new way to connect! 🔥📱</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The reel promotes BDA Auctions in Bangalore, highlighting opportunities to buy real estate at attractive prices. The engagement is high with viewers repeatedly commenting 'BDA', suggesting strong interest or curiosity about the topic. The audience is local and highly interactive, with several comments receiving likes and replies.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Indian real estate enthusiast or property investment content creator, focused on Bangalore market opportunities.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Curious, engaged, regionally specific, and transactional.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>7</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DLpZoShPDQV/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hashtaghomez</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>The creator attracts a hyperlocal Indian audience interested in property deals, aligning with Knytt's India-only focus. The reel's engagement, though not viral, is strong within the niche. Both DM and public comment are recommended: a DM for the creator (potential for value-added collaboration), and a public comment to spark curiosity among the engaged audience.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Hi! Loved your reel on BDA Auctions — really valuable for Bangalore's property seekers. We're building Knytt, a paid texting &amp; video calling app built for trusted, direct conversations (perfect for real estate and serious queries). Would you be open to exploring a collab to help your audience connect with you and get their property questions answered securely on Knytt? Happy to share more details!</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Bangalore property deals are 🔥! Imagine if you could connect directly with experts or sellers for advice &amp; updates. Ever tried something like @knyttofficial for secure, direct chats? Curious if the real estate fam here would find it useful! 🏡✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>This reel by firtamusafir beautifully captures the essence of Mumbai monsoons, blending street photography with poetic narration. The creator's focus is on the vibrancy, chaos, and emotional pulse of the rainy season in Mumbai, resonating with local pride and nostalgia.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Artistic, urban explorer, passionate about street and travel photography, emotionally expressive, likely based in Mumbai or deeply connected to the city.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Highly positive, admiring, and supportive. Audience expresses awe, love, and connection to the visuals and theme.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>9</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DL5HYitI7ys/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://instagram.com/firtamusafir</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>The creator's emotional and relatable content aligns with Knytt's goal of fostering real conversations and connections. The audience is highly engaged, showing both reach and the possibility to tap into an interested community. Both a comment and a personalized DM would maximize visibility and conversion, leveraging the reel's relatable, local, and emotive appeal.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Hey! Your Mumbai monsoon reel really brought the city’s heartbeat to life. We’re building Knytt – a new Indian app where people can connect through real stories and conversations, just like yours. Would you be open to exploring a collaboration where your voice inspires more people to share their Mumbai moments?</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Every drop tells a Mumbai story! 🌧️✨ This energy is exactly what inspired us to create Knytt – a space for real conversations and city stories. Anyone here ever felt this monsoon magic? Check out @knyttofficial for more city vibes!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
